--- a/BackTest/2020-01-12 BackTest RNT.xlsx
+++ b/BackTest/2020-01-12 BackTest RNT.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.89</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -501,11 +497,7 @@
       <c r="K3" t="n">
         <v>10.89</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,14 +525,12 @@
         <v>11.06616666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>10.89</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>10.89</v>
       </c>
@@ -582,8 +572,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -1136,17 +1132,13 @@
         <v>11.02083333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1175,22 +1167,14 @@
         <v>11.00133333333332</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1218,22 +1202,14 @@
         <v>10.98166666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1261,22 +1237,14 @@
         <v>10.96783333333332</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1304,22 +1272,14 @@
         <v>10.95083333333332</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1347,22 +1307,14 @@
         <v>10.93783333333332</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1390,22 +1342,14 @@
         <v>10.92499999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="K27" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1433,22 +1377,14 @@
         <v>10.91866666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1476,22 +1412,14 @@
         <v>10.90749999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K29" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1519,22 +1447,14 @@
         <v>10.89699999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K30" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1562,22 +1482,14 @@
         <v>10.88983333333332</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K31" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1605,22 +1517,14 @@
         <v>10.88233333333332</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="K32" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1648,22 +1552,14 @@
         <v>10.87599999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1691,22 +1587,14 @@
         <v>10.87133333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K34" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1622,14 @@
         <v>10.86949999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1777,22 +1657,14 @@
         <v>10.86633333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1820,22 +1692,14 @@
         <v>10.86716666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="K37" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1863,22 +1727,14 @@
         <v>10.86299999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1906,22 +1762,14 @@
         <v>10.85683333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="K39" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1949,22 +1797,14 @@
         <v>10.85433333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>11</v>
-      </c>
-      <c r="K40" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1992,22 +1832,14 @@
         <v>10.85183333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>11</v>
-      </c>
-      <c r="K41" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2035,22 +1867,14 @@
         <v>10.84933333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>11</v>
-      </c>
-      <c r="K42" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +1902,14 @@
         <v>10.84866666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="K43" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2121,22 +1937,14 @@
         <v>10.85466666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1978,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +2013,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +2048,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +2083,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2372,17 +2150,11 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2413,19 +2185,13 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>1.060420560747664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2454,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2489,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2629,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -5041,20 +4807,14 @@
         <v>11.01033333333332</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>10.78</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +4849,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5121,20 +4877,14 @@
         <v>11.00016666666665</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>10.88</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5162,20 +4912,14 @@
         <v>10.99016666666665</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5203,20 +4947,14 @@
         <v>10.98166666666665</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>10.87</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5244,20 +4982,14 @@
         <v>10.97683333333332</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>10.91</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5285,20 +5017,14 @@
         <v>10.97066666666665</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5326,20 +5052,14 @@
         <v>10.96116666666665</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5367,20 +5087,14 @@
         <v>10.95499999999998</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5408,20 +5122,14 @@
         <v>10.94766666666665</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>10.76</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5449,20 +5157,14 @@
         <v>10.94066666666665</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>10.78</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5490,20 +5192,14 @@
         <v>10.93599999999998</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>10.82</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5531,20 +5227,14 @@
         <v>10.93133333333332</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>10.88</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5572,20 +5262,14 @@
         <v>10.92716666666665</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5613,20 +5297,14 @@
         <v>10.92333333333332</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5654,20 +5332,14 @@
         <v>10.91566666666665</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5695,20 +5367,14 @@
         <v>10.91399999999999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5736,20 +5402,14 @@
         <v>10.90949999999999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>10.81</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5777,20 +5437,14 @@
         <v>10.90099999999999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>10.78</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5818,20 +5472,14 @@
         <v>10.89949999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5859,20 +5507,14 @@
         <v>10.89716666666665</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5900,20 +5542,14 @@
         <v>10.89649999999999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5941,20 +5577,14 @@
         <v>10.89566666666665</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>10.94</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5982,20 +5612,14 @@
         <v>10.89649999999999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>10.94</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6023,20 +5647,14 @@
         <v>10.89699999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>10.94</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6064,20 +5682,14 @@
         <v>10.89683333333332</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>10.81</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6105,20 +5717,14 @@
         <v>10.89666666666666</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6146,20 +5752,14 @@
         <v>10.89649999999999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6187,20 +5787,14 @@
         <v>10.89749999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6228,20 +5822,14 @@
         <v>10.89833333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>10.96</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6269,20 +5857,14 @@
         <v>10.89683333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>10.82</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6310,20 +5892,14 @@
         <v>10.89283333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>10.82</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6351,20 +5927,14 @@
         <v>10.89166666666666</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>10.95</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6392,20 +5962,14 @@
         <v>10.89066666666666</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>11.04</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6433,20 +5997,14 @@
         <v>10.88983333333332</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>11.04</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6481,11 +6039,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6520,11 +6074,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6559,11 +6109,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6144,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +6179,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6676,11 +6214,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +6249,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6284,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6793,11 +6319,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6354,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6871,11 +6389,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +6424,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +6459,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +6494,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7027,11 +6529,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7066,11 +6564,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6599,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7144,11 +6634,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +6669,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7222,11 +6704,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +6739,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7300,11 +6774,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +6809,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +6844,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7417,11 +6879,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7456,11 +6914,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7495,11 +6949,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7534,11 +6984,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7573,11 +7019,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7054,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +7089,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +7124,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7729,11 +7159,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +7194,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7807,11 +7229,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +7264,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7885,11 +7299,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7924,11 +7334,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7963,11 +7369,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8002,11 +7404,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +7439,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8080,11 +7474,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8119,11 +7509,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +7544,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +7579,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8236,11 +7614,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +7649,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8314,11 +7684,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8353,11 +7719,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8392,11 +7754,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8431,11 +7789,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +7824,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8509,11 +7859,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +7894,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +7929,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +7964,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8665,11 +7999,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +8034,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8743,11 +8069,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8782,11 +8104,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +8139,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +8174,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8209,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8244,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +8279,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9016,11 +8314,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +8349,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9094,11 +8384,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +8419,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9172,11 +8454,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9211,11 +8489,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +8524,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9289,11 +8559,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +8594,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9367,11 +8629,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9406,11 +8664,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9445,11 +8699,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9484,11 +8734,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest RNT.xlsx
+++ b/BackTest/2020-01-12 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.89</v>
+        <v>10.72</v>
       </c>
       <c r="C2" t="n">
-        <v>10.89</v>
+        <v>10.67</v>
       </c>
       <c r="D2" t="n">
-        <v>10.89</v>
+        <v>10.72</v>
       </c>
       <c r="E2" t="n">
-        <v>10.89</v>
+        <v>10.67</v>
       </c>
       <c r="F2" t="n">
-        <v>5491</v>
+        <v>117960.3985</v>
       </c>
       <c r="G2" t="n">
-        <v>11.06816666666666</v>
+        <v>11.06833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -483,20 +483,16 @@
         <v>5491</v>
       </c>
       <c r="G3" t="n">
-        <v>11.06699999999999</v>
+        <v>11.06816666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.89</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -519,10 +515,10 @@
         <v>10.89</v>
       </c>
       <c r="F4" t="n">
-        <v>12105.686</v>
+        <v>5491</v>
       </c>
       <c r="G4" t="n">
-        <v>11.06616666666666</v>
+        <v>11.06699999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -531,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -548,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9</v>
+        <v>10.89</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9</v>
+        <v>10.89</v>
       </c>
       <c r="D5" t="n">
-        <v>10.9</v>
+        <v>10.89</v>
       </c>
       <c r="E5" t="n">
-        <v>10.9</v>
+        <v>10.89</v>
       </c>
       <c r="F5" t="n">
-        <v>5955.3338</v>
+        <v>12105.686</v>
       </c>
       <c r="G5" t="n">
-        <v>11.06549999999999</v>
+        <v>11.06616666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -589,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2114.8029</v>
+        <v>5955.3338</v>
       </c>
       <c r="G6" t="n">
-        <v>11.06649999999999</v>
+        <v>11.06549999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -636,10 +620,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>18177.586</v>
+        <v>2114.8029</v>
       </c>
       <c r="G7" t="n">
-        <v>11.06749999999999</v>
+        <v>11.06649999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -659,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>11</v>
@@ -668,13 +652,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>16384.5928</v>
+        <v>18177.586</v>
       </c>
       <c r="G8" t="n">
-        <v>11.07099999999999</v>
+        <v>11.06749999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -694,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.01</v>
+        <v>10.99</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>11.01</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F9" t="n">
-        <v>24445.6032</v>
+        <v>16384.5928</v>
       </c>
       <c r="G9" t="n">
-        <v>11.07483333333332</v>
+        <v>11.07099999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="C10" t="n">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>18494.9518</v>
+        <v>24445.6032</v>
       </c>
       <c r="G10" t="n">
-        <v>11.07583333333332</v>
+        <v>11.07483333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -764,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>10268.3537</v>
+        <v>18494.9518</v>
       </c>
       <c r="G11" t="n">
-        <v>11.08016666666665</v>
+        <v>11.07583333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -799,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.99</v>
+        <v>11.03</v>
       </c>
       <c r="C12" t="n">
-        <v>10.99</v>
+        <v>11.03</v>
       </c>
       <c r="D12" t="n">
-        <v>10.99</v>
+        <v>11.03</v>
       </c>
       <c r="E12" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>2949.28</v>
+        <v>10268.3537</v>
       </c>
       <c r="G12" t="n">
-        <v>11.07899999999999</v>
+        <v>11.08016666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,10 +830,10 @@
         <v>10.99</v>
       </c>
       <c r="F13" t="n">
-        <v>20578.461</v>
+        <v>2949.28</v>
       </c>
       <c r="G13" t="n">
-        <v>11.07783333333332</v>
+        <v>11.07899999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -881,10 +865,10 @@
         <v>10.99</v>
       </c>
       <c r="F14" t="n">
-        <v>10958.7446</v>
+        <v>20578.461</v>
       </c>
       <c r="G14" t="n">
-        <v>11.07666666666666</v>
+        <v>11.07783333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -904,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.8</v>
+        <v>10.99</v>
       </c>
       <c r="C15" t="n">
-        <v>10.8</v>
+        <v>10.99</v>
       </c>
       <c r="D15" t="n">
-        <v>10.8</v>
+        <v>10.99</v>
       </c>
       <c r="E15" t="n">
-        <v>10.8</v>
+        <v>10.99</v>
       </c>
       <c r="F15" t="n">
-        <v>16285.816</v>
+        <v>10958.7446</v>
       </c>
       <c r="G15" t="n">
-        <v>11.07216666666666</v>
+        <v>11.07666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -951,10 +935,10 @@
         <v>10.8</v>
       </c>
       <c r="F16" t="n">
-        <v>2114.8029</v>
+        <v>16285.816</v>
       </c>
       <c r="G16" t="n">
-        <v>11.06649999999999</v>
+        <v>11.07216666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -974,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.81</v>
+        <v>10.8</v>
       </c>
       <c r="C17" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D17" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E17" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F17" t="n">
-        <v>35859.7085</v>
+        <v>2114.8029</v>
       </c>
       <c r="G17" t="n">
-        <v>11.06233333333332</v>
+        <v>11.06649999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1009,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="C18" t="n">
-        <v>10.68</v>
+        <v>10.9</v>
       </c>
       <c r="D18" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="E18" t="n">
-        <v>10.68</v>
+        <v>10.7</v>
       </c>
       <c r="F18" t="n">
-        <v>133576.6744</v>
+        <v>35859.7085</v>
       </c>
       <c r="G18" t="n">
-        <v>11.05299999999999</v>
+        <v>11.06233333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1044,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.7</v>
+        <v>10.89</v>
       </c>
       <c r="C19" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="D19" t="n">
-        <v>10.7</v>
+        <v>10.89</v>
       </c>
       <c r="E19" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="F19" t="n">
-        <v>1410</v>
+        <v>133576.6744</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04383333333332</v>
+        <v>11.05299999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1079,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="C20" t="n">
-        <v>10.68</v>
+        <v>10.7</v>
       </c>
       <c r="D20" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="E20" t="n">
-        <v>10.68</v>
+        <v>10.7</v>
       </c>
       <c r="F20" t="n">
-        <v>166575.645</v>
+        <v>1410</v>
       </c>
       <c r="G20" t="n">
-        <v>11.03383333333332</v>
+        <v>11.04383333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1114,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="C21" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="D21" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="E21" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="F21" t="n">
-        <v>596.1591</v>
+        <v>166575.645</v>
       </c>
       <c r="G21" t="n">
-        <v>11.02083333333332</v>
+        <v>11.03383333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1152,19 +1136,19 @@
         <v>10.7</v>
       </c>
       <c r="C22" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="D22" t="n">
         <v>10.7</v>
       </c>
       <c r="E22" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="F22" t="n">
-        <v>15395.2522</v>
+        <v>596.1591</v>
       </c>
       <c r="G22" t="n">
-        <v>11.00133333333332</v>
+        <v>11.02083333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1184,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="C23" t="n">
         <v>10.69</v>
       </c>
       <c r="D23" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="E23" t="n">
         <v>10.69</v>
       </c>
       <c r="F23" t="n">
-        <v>9364.839900000001</v>
+        <v>15395.2522</v>
       </c>
       <c r="G23" t="n">
-        <v>10.98166666666666</v>
+        <v>11.00133333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="C24" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="D24" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="E24" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="F24" t="n">
-        <v>250.8921</v>
+        <v>9364.839900000001</v>
       </c>
       <c r="G24" t="n">
-        <v>10.96783333333332</v>
+        <v>10.98166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="C25" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="D25" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="E25" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="F25" t="n">
-        <v>6868.4882</v>
+        <v>250.8921</v>
       </c>
       <c r="G25" t="n">
-        <v>10.95083333333332</v>
+        <v>10.96783333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1289,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.79</v>
+        <v>10.69</v>
       </c>
       <c r="C26" t="n">
-        <v>10.83</v>
+        <v>10.69</v>
       </c>
       <c r="D26" t="n">
-        <v>10.83</v>
+        <v>10.69</v>
       </c>
       <c r="E26" t="n">
-        <v>10.79</v>
+        <v>10.69</v>
       </c>
       <c r="F26" t="n">
-        <v>24852.1521</v>
+        <v>6868.4882</v>
       </c>
       <c r="G26" t="n">
-        <v>10.93783333333332</v>
+        <v>10.95083333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1324,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.84</v>
+        <v>10.79</v>
       </c>
       <c r="C27" t="n">
-        <v>10.84</v>
+        <v>10.83</v>
       </c>
       <c r="D27" t="n">
-        <v>10.84</v>
+        <v>10.83</v>
       </c>
       <c r="E27" t="n">
-        <v>10.84</v>
+        <v>10.79</v>
       </c>
       <c r="F27" t="n">
-        <v>431.1681</v>
+        <v>24852.1521</v>
       </c>
       <c r="G27" t="n">
-        <v>10.92499999999999</v>
+        <v>10.93783333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1359,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.83</v>
+        <v>10.84</v>
       </c>
       <c r="C28" t="n">
-        <v>10.83</v>
+        <v>10.84</v>
       </c>
       <c r="D28" t="n">
-        <v>10.83</v>
+        <v>10.84</v>
       </c>
       <c r="E28" t="n">
-        <v>10.83</v>
+        <v>10.84</v>
       </c>
       <c r="F28" t="n">
-        <v>833.9589999999999</v>
+        <v>431.1681</v>
       </c>
       <c r="G28" t="n">
-        <v>10.91866666666666</v>
+        <v>10.92499999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1406,10 +1390,10 @@
         <v>10.83</v>
       </c>
       <c r="F29" t="n">
-        <v>16563.8388</v>
+        <v>833.9589999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>10.90749999999999</v>
+        <v>10.91866666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1429,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.87</v>
+        <v>10.83</v>
       </c>
       <c r="C30" t="n">
-        <v>10.87</v>
+        <v>10.83</v>
       </c>
       <c r="D30" t="n">
-        <v>10.87</v>
+        <v>10.83</v>
       </c>
       <c r="E30" t="n">
-        <v>10.87</v>
+        <v>10.83</v>
       </c>
       <c r="F30" t="n">
-        <v>748.177</v>
+        <v>16563.8388</v>
       </c>
       <c r="G30" t="n">
-        <v>10.89699999999999</v>
+        <v>10.90749999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1476,10 +1460,10 @@
         <v>10.87</v>
       </c>
       <c r="F31" t="n">
-        <v>9994.6155</v>
+        <v>748.177</v>
       </c>
       <c r="G31" t="n">
-        <v>10.88983333333332</v>
+        <v>10.89699999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1499,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.75</v>
+        <v>10.87</v>
       </c>
       <c r="C32" t="n">
-        <v>10.75</v>
+        <v>10.87</v>
       </c>
       <c r="D32" t="n">
-        <v>10.75</v>
+        <v>10.87</v>
       </c>
       <c r="E32" t="n">
-        <v>10.75</v>
+        <v>10.87</v>
       </c>
       <c r="F32" t="n">
-        <v>1462.3914</v>
+        <v>9994.6155</v>
       </c>
       <c r="G32" t="n">
-        <v>10.88233333333332</v>
+        <v>10.88983333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.86</v>
+        <v>10.75</v>
       </c>
       <c r="C33" t="n">
-        <v>10.87</v>
+        <v>10.75</v>
       </c>
       <c r="D33" t="n">
-        <v>10.87</v>
+        <v>10.75</v>
       </c>
       <c r="E33" t="n">
-        <v>10.86</v>
+        <v>10.75</v>
       </c>
       <c r="F33" t="n">
-        <v>48700.4662</v>
+        <v>1462.3914</v>
       </c>
       <c r="G33" t="n">
-        <v>10.87599999999999</v>
+        <v>10.88233333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1569,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="C34" t="n">
         <v>10.87</v>
       </c>
-      <c r="C34" t="n">
-        <v>10.88</v>
-      </c>
       <c r="D34" t="n">
-        <v>10.88</v>
+        <v>10.87</v>
       </c>
       <c r="E34" t="n">
-        <v>10.87</v>
+        <v>10.86</v>
       </c>
       <c r="F34" t="n">
-        <v>13362.1832</v>
+        <v>48700.4662</v>
       </c>
       <c r="G34" t="n">
-        <v>10.87133333333333</v>
+        <v>10.87599999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1604,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.89</v>
+        <v>10.87</v>
       </c>
       <c r="C35" t="n">
-        <v>10.93</v>
+        <v>10.88</v>
       </c>
       <c r="D35" t="n">
-        <v>10.93</v>
+        <v>10.88</v>
       </c>
       <c r="E35" t="n">
-        <v>10.89</v>
+        <v>10.87</v>
       </c>
       <c r="F35" t="n">
-        <v>29254.1555</v>
+        <v>13362.1832</v>
       </c>
       <c r="G35" t="n">
-        <v>10.86949999999999</v>
+        <v>10.87133333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1639,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.99</v>
+        <v>10.89</v>
       </c>
       <c r="C36" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="D36" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="E36" t="n">
-        <v>10.99</v>
+        <v>10.89</v>
       </c>
       <c r="F36" t="n">
-        <v>48</v>
+        <v>29254.1555</v>
       </c>
       <c r="G36" t="n">
-        <v>10.86633333333333</v>
+        <v>10.86949999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,10 +1670,10 @@
         <v>10.99</v>
       </c>
       <c r="F37" t="n">
-        <v>153956</v>
+        <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>10.86716666666666</v>
+        <v>10.86633333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1709,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="C38" t="n">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="D38" t="n">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="E38" t="n">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="F38" t="n">
-        <v>2640</v>
+        <v>153956</v>
       </c>
       <c r="G38" t="n">
-        <v>10.86299999999999</v>
+        <v>10.86716666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1744,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="C39" t="n">
-        <v>10.88</v>
+        <v>10.9</v>
       </c>
       <c r="D39" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="E39" t="n">
-        <v>10.88</v>
+        <v>10.9</v>
       </c>
       <c r="F39" t="n">
-        <v>27785.4369</v>
+        <v>2640</v>
       </c>
       <c r="G39" t="n">
-        <v>10.85683333333333</v>
+        <v>10.86299999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1779,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>10.88</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10.89</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>10.88</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>27785.4369</v>
       </c>
       <c r="G40" t="n">
-        <v>10.85433333333333</v>
+        <v>10.85683333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1826,10 +1810,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>36534.6304</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>10.85183333333333</v>
+        <v>10.85433333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1861,10 +1845,10 @@
         <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>15792.8787</v>
+        <v>36534.6304</v>
       </c>
       <c r="G42" t="n">
-        <v>10.84933333333333</v>
+        <v>10.85183333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1884,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.04</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>11.04</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>101360.5952</v>
+        <v>15792.8787</v>
       </c>
       <c r="G43" t="n">
-        <v>10.84866666666666</v>
+        <v>10.84933333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1919,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.1</v>
+        <v>11.04</v>
       </c>
       <c r="C44" t="n">
         <v>11.1</v>
@@ -1928,13 +1912,13 @@
         <v>11.1</v>
       </c>
       <c r="E44" t="n">
-        <v>11.1</v>
+        <v>11.04</v>
       </c>
       <c r="F44" t="n">
-        <v>23586.381</v>
+        <v>101360.5952</v>
       </c>
       <c r="G44" t="n">
-        <v>10.85466666666666</v>
+        <v>10.84866666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1954,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.15</v>
+        <v>11.1</v>
       </c>
       <c r="C45" t="n">
-        <v>11.15</v>
+        <v>11.1</v>
       </c>
       <c r="D45" t="n">
-        <v>11.15</v>
+        <v>11.1</v>
       </c>
       <c r="E45" t="n">
-        <v>11.15</v>
+        <v>11.1</v>
       </c>
       <c r="F45" t="n">
-        <v>15246.63677130045</v>
+        <v>23586.381</v>
       </c>
       <c r="G45" t="n">
-        <v>10.86133333333333</v>
+        <v>10.85466666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1992,19 +1976,19 @@
         <v>11.15</v>
       </c>
       <c r="C46" t="n">
-        <v>11.2</v>
+        <v>11.15</v>
       </c>
       <c r="D46" t="n">
-        <v>11.2</v>
+        <v>11.15</v>
       </c>
       <c r="E46" t="n">
         <v>11.15</v>
       </c>
       <c r="F46" t="n">
-        <v>49270.67362869955</v>
+        <v>15246.63677130045</v>
       </c>
       <c r="G46" t="n">
-        <v>10.86483333333333</v>
+        <v>10.86133333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.26</v>
+        <v>11.15</v>
       </c>
       <c r="C47" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D47" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E47" t="n">
-        <v>11.26</v>
+        <v>11.15</v>
       </c>
       <c r="F47" t="n">
-        <v>353595.3266</v>
+        <v>49270.67362869955</v>
       </c>
       <c r="G47" t="n">
-        <v>10.87833333333333</v>
+        <v>10.86483333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2059,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.53</v>
+        <v>11.26</v>
       </c>
       <c r="C48" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D48" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E48" t="n">
-        <v>11.4</v>
+        <v>11.26</v>
       </c>
       <c r="F48" t="n">
-        <v>31142.165</v>
+        <v>353595.3266</v>
       </c>
       <c r="G48" t="n">
-        <v>10.89349999999999</v>
+        <v>10.87833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.33</v>
+        <v>11.53</v>
       </c>
       <c r="C49" t="n">
         <v>11.6</v>
@@ -2103,13 +2087,13 @@
         <v>11.6</v>
       </c>
       <c r="E49" t="n">
-        <v>11.33</v>
+        <v>11.4</v>
       </c>
       <c r="F49" t="n">
-        <v>15451.0147</v>
+        <v>31142.165</v>
       </c>
       <c r="G49" t="n">
-        <v>10.90599999999999</v>
+        <v>10.89349999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2129,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.42</v>
+        <v>11.33</v>
       </c>
       <c r="C50" t="n">
         <v>11.6</v>
@@ -2138,13 +2122,13 @@
         <v>11.6</v>
       </c>
       <c r="E50" t="n">
-        <v>11.42</v>
+        <v>11.33</v>
       </c>
       <c r="F50" t="n">
-        <v>1107.462</v>
+        <v>15451.0147</v>
       </c>
       <c r="G50" t="n">
-        <v>10.91616666666666</v>
+        <v>10.90599999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2167,25 +2151,25 @@
         <v>11.42</v>
       </c>
       <c r="C51" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D51" t="n">
-        <v>11.59</v>
+        <v>11.6</v>
       </c>
       <c r="E51" t="n">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
       <c r="F51" t="n">
-        <v>156086.0186</v>
+        <v>1107.462</v>
       </c>
       <c r="G51" t="n">
-        <v>10.92533333333333</v>
+        <v>10.91616666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2199,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.49</v>
+        <v>11.42</v>
       </c>
       <c r="C52" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="D52" t="n">
-        <v>11.49</v>
+        <v>11.59</v>
       </c>
       <c r="E52" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="F52" t="n">
-        <v>88</v>
+        <v>156086.0186</v>
       </c>
       <c r="G52" t="n">
-        <v>10.94016666666666</v>
+        <v>10.92533333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2237,19 +2221,19 @@
         <v>11.49</v>
       </c>
       <c r="C53" t="n">
-        <v>11.6</v>
+        <v>11.49</v>
       </c>
       <c r="D53" t="n">
-        <v>11.6</v>
+        <v>11.49</v>
       </c>
       <c r="E53" t="n">
         <v>11.49</v>
       </c>
       <c r="F53" t="n">
-        <v>29952.5329</v>
+        <v>88</v>
       </c>
       <c r="G53" t="n">
-        <v>10.95199999999999</v>
+        <v>10.94016666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2269,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.4</v>
+        <v>11.49</v>
       </c>
       <c r="C54" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D54" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E54" t="n">
-        <v>11.4</v>
+        <v>11.49</v>
       </c>
       <c r="F54" t="n">
-        <v>4273.7651</v>
+        <v>29952.5329</v>
       </c>
       <c r="G54" t="n">
-        <v>10.96516666666666</v>
+        <v>10.95199999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2304,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C55" t="n">
         <v>11.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>11.49</v>
       </c>
       <c r="D55" t="n">
         <v>11.5</v>
       </c>
       <c r="E55" t="n">
-        <v>11.49</v>
+        <v>11.4</v>
       </c>
       <c r="F55" t="n">
-        <v>468.1704</v>
+        <v>4273.7651</v>
       </c>
       <c r="G55" t="n">
-        <v>10.97833333333332</v>
+        <v>10.96516666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2339,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="C56" t="n">
-        <v>11.48</v>
+        <v>11.49</v>
       </c>
       <c r="D56" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="E56" t="n">
-        <v>11.48</v>
+        <v>11.49</v>
       </c>
       <c r="F56" t="n">
-        <v>61</v>
+        <v>468.1704</v>
       </c>
       <c r="G56" t="n">
-        <v>10.99166666666666</v>
+        <v>10.97833333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2374,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="C57" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="D57" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="E57" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="F57" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" t="n">
-        <v>11.00133333333333</v>
+        <v>10.99166666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2409,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.42</v>
+        <v>11.47</v>
       </c>
       <c r="C58" t="n">
-        <v>11.3</v>
+        <v>11.47</v>
       </c>
       <c r="D58" t="n">
-        <v>11.42</v>
+        <v>11.47</v>
       </c>
       <c r="E58" t="n">
-        <v>11.3</v>
+        <v>11.47</v>
       </c>
       <c r="F58" t="n">
-        <v>2074.5163</v>
+        <v>62</v>
       </c>
       <c r="G58" t="n">
-        <v>11.00816666666666</v>
+        <v>11.00133333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2444,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.2</v>
+        <v>11.42</v>
       </c>
       <c r="C59" t="n">
-        <v>11.48</v>
+        <v>11.3</v>
       </c>
       <c r="D59" t="n">
-        <v>11.48</v>
+        <v>11.42</v>
       </c>
       <c r="E59" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F59" t="n">
-        <v>15186.2701</v>
+        <v>2074.5163</v>
       </c>
       <c r="G59" t="n">
-        <v>11.02116666666666</v>
+        <v>11.00816666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2479,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.29</v>
+        <v>11.2</v>
       </c>
       <c r="C60" t="n">
-        <v>11.29</v>
+        <v>11.48</v>
       </c>
       <c r="D60" t="n">
-        <v>11.29</v>
+        <v>11.48</v>
       </c>
       <c r="E60" t="n">
-        <v>11.29</v>
+        <v>11.2</v>
       </c>
       <c r="F60" t="n">
-        <v>243.6548</v>
+        <v>15186.2701</v>
       </c>
       <c r="G60" t="n">
-        <v>11.03099999999999</v>
+        <v>11.02116666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2526,10 +2510,10 @@
         <v>11.29</v>
       </c>
       <c r="F61" t="n">
-        <v>161.8615</v>
+        <v>243.6548</v>
       </c>
       <c r="G61" t="n">
-        <v>11.04133333333332</v>
+        <v>11.03099999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.2</v>
+        <v>11.29</v>
       </c>
       <c r="C62" t="n">
-        <v>11.2</v>
+        <v>11.29</v>
       </c>
       <c r="D62" t="n">
-        <v>11.2</v>
+        <v>11.29</v>
       </c>
       <c r="E62" t="n">
-        <v>11.2</v>
+        <v>11.29</v>
       </c>
       <c r="F62" t="n">
-        <v>3102.1811</v>
+        <v>161.8615</v>
       </c>
       <c r="G62" t="n">
-        <v>11.04649999999999</v>
+        <v>11.04133333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2587,19 +2571,19 @@
         <v>11.2</v>
       </c>
       <c r="C63" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="D63" t="n">
         <v>11.2</v>
       </c>
       <c r="E63" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="F63" t="n">
-        <v>125127.5297</v>
+        <v>3102.1811</v>
       </c>
       <c r="G63" t="n">
-        <v>11.04966666666666</v>
+        <v>11.04649999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2619,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.09</v>
+        <v>11.2</v>
       </c>
       <c r="C64" t="n">
         <v>11.08</v>
       </c>
       <c r="D64" t="n">
-        <v>11.09</v>
+        <v>11.2</v>
       </c>
       <c r="E64" t="n">
         <v>11.08</v>
       </c>
       <c r="F64" t="n">
-        <v>11032.2048</v>
+        <v>125127.5297</v>
       </c>
       <c r="G64" t="n">
-        <v>11.05283333333333</v>
+        <v>11.04966666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2657,19 +2641,19 @@
         <v>11.09</v>
       </c>
       <c r="C65" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="D65" t="n">
         <v>11.09</v>
       </c>
       <c r="E65" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="F65" t="n">
-        <v>11207.0334</v>
+        <v>11032.2048</v>
       </c>
       <c r="G65" t="n">
-        <v>11.05599999999999</v>
+        <v>11.05283333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2689,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="C66" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="D66" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="E66" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="F66" t="n">
-        <v>94318.25109999999</v>
+        <v>11207.0334</v>
       </c>
       <c r="G66" t="n">
-        <v>11.05733333333333</v>
+        <v>11.05599999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2724,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.17</v>
+        <v>11.08</v>
       </c>
       <c r="C67" t="n">
-        <v>11.17</v>
+        <v>11.08</v>
       </c>
       <c r="D67" t="n">
-        <v>11.17</v>
+        <v>11.08</v>
       </c>
       <c r="E67" t="n">
-        <v>11.17</v>
+        <v>11.08</v>
       </c>
       <c r="F67" t="n">
-        <v>5022.8028</v>
+        <v>94318.25109999999</v>
       </c>
       <c r="G67" t="n">
-        <v>11.06016666666666</v>
+        <v>11.05733333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2762,19 +2746,19 @@
         <v>11.17</v>
       </c>
       <c r="C68" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="D68" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="E68" t="n">
         <v>11.17</v>
       </c>
       <c r="F68" t="n">
-        <v>101574.4358</v>
+        <v>5022.8028</v>
       </c>
       <c r="G68" t="n">
-        <v>11.0635</v>
+        <v>11.06016666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="C69" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D69" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E69" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="F69" t="n">
-        <v>113924.5255</v>
+        <v>101574.4358</v>
       </c>
       <c r="G69" t="n">
-        <v>11.07016666666666</v>
+        <v>11.0635</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="C70" t="n">
         <v>11.4</v>
@@ -2838,13 +2822,13 @@
         <v>11.4</v>
       </c>
       <c r="E70" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F70" t="n">
-        <v>506.6824</v>
+        <v>113924.5255</v>
       </c>
       <c r="G70" t="n">
-        <v>11.07683333333333</v>
+        <v>11.07016666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2864,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C71" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="D71" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="E71" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="F71" t="n">
-        <v>75647.0892</v>
+        <v>506.6824</v>
       </c>
       <c r="G71" t="n">
-        <v>11.07966666666666</v>
+        <v>11.07683333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2911,10 +2895,10 @@
         <v>11.2</v>
       </c>
       <c r="F72" t="n">
-        <v>59926.5142</v>
+        <v>75647.0892</v>
       </c>
       <c r="G72" t="n">
-        <v>11.08316666666666</v>
+        <v>11.07966666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="C73" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D73" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E73" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F73" t="n">
-        <v>48</v>
+        <v>59926.5142</v>
       </c>
       <c r="G73" t="n">
-        <v>11.09</v>
+        <v>11.08316666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C74" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="D74" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="E74" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="F74" t="n">
-        <v>30879.1715</v>
+        <v>48</v>
       </c>
       <c r="G74" t="n">
-        <v>11.0935</v>
+        <v>11.09</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3016,10 +3000,10 @@
         <v>11.2</v>
       </c>
       <c r="F75" t="n">
-        <v>2710.5568</v>
+        <v>30879.1715</v>
       </c>
       <c r="G75" t="n">
-        <v>11.10016666666666</v>
+        <v>11.0935</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3051,10 +3035,10 @@
         <v>11.2</v>
       </c>
       <c r="F76" t="n">
-        <v>5362.3175</v>
+        <v>2710.5568</v>
       </c>
       <c r="G76" t="n">
-        <v>11.10683333333333</v>
+        <v>11.10016666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,31 +3058,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="C77" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="D77" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="E77" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="F77" t="n">
-        <v>5723.5629</v>
+        <v>5362.3175</v>
       </c>
       <c r="G77" t="n">
-        <v>11.11033333333333</v>
+        <v>11.10683333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>11.2</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3109,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.1</v>
+        <v>11.11</v>
       </c>
       <c r="C78" t="n">
         <v>11.11</v>
@@ -3118,23 +3106,31 @@
         <v>11.11</v>
       </c>
       <c r="E78" t="n">
-        <v>11.08</v>
+        <v>11.11</v>
       </c>
       <c r="F78" t="n">
-        <v>66440.7748</v>
+        <v>5723.5629</v>
       </c>
       <c r="G78" t="n">
-        <v>11.1175</v>
+        <v>11.11033333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3144,32 +3140,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="C79" t="n">
-        <v>11.08</v>
+        <v>11.11</v>
       </c>
       <c r="D79" t="n">
-        <v>11.08</v>
+        <v>11.11</v>
       </c>
       <c r="E79" t="n">
         <v>11.08</v>
       </c>
       <c r="F79" t="n">
-        <v>86722.8999</v>
+        <v>66440.7748</v>
       </c>
       <c r="G79" t="n">
-        <v>11.12383333333333</v>
+        <v>11.1175</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3179,32 +3183,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="C80" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="D80" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="E80" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="F80" t="n">
-        <v>16112.5905</v>
+        <v>86722.8999</v>
       </c>
       <c r="G80" t="n">
-        <v>11.13016666666667</v>
+        <v>11.12383333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3214,32 +3226,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.11</v>
+        <v>11.06</v>
       </c>
       <c r="C81" t="n">
-        <v>11.29</v>
+        <v>11.06</v>
       </c>
       <c r="D81" t="n">
-        <v>11.29</v>
+        <v>11.06</v>
       </c>
       <c r="E81" t="n">
-        <v>11.11</v>
+        <v>11.06</v>
       </c>
       <c r="F81" t="n">
-        <v>700</v>
+        <v>16112.5905</v>
       </c>
       <c r="G81" t="n">
-        <v>11.14</v>
+        <v>11.13016666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3249,22 +3269,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.07</v>
+        <v>11.11</v>
       </c>
       <c r="C82" t="n">
-        <v>11.07</v>
+        <v>11.29</v>
       </c>
       <c r="D82" t="n">
-        <v>11.07</v>
+        <v>11.29</v>
       </c>
       <c r="E82" t="n">
-        <v>11.07</v>
+        <v>11.11</v>
       </c>
       <c r="F82" t="n">
-        <v>539.7209</v>
+        <v>700</v>
       </c>
       <c r="G82" t="n">
-        <v>11.14633333333333</v>
+        <v>11.14</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3273,8 +3293,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3310,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="C83" t="n">
-        <v>11.05</v>
+        <v>11.07</v>
       </c>
       <c r="D83" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="E83" t="n">
-        <v>11.05</v>
+        <v>11.07</v>
       </c>
       <c r="F83" t="n">
-        <v>239625.3974</v>
+        <v>539.7209</v>
       </c>
       <c r="G83" t="n">
-        <v>11.15233333333333</v>
+        <v>11.14633333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3308,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3319,22 +3351,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.27</v>
+        <v>11.06</v>
       </c>
       <c r="C84" t="n">
-        <v>11.29</v>
+        <v>11.05</v>
       </c>
       <c r="D84" t="n">
-        <v>11.29</v>
+        <v>11.06</v>
       </c>
       <c r="E84" t="n">
-        <v>11.27</v>
+        <v>11.05</v>
       </c>
       <c r="F84" t="n">
-        <v>1300</v>
+        <v>239625.3974</v>
       </c>
       <c r="G84" t="n">
-        <v>11.1625</v>
+        <v>11.15233333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3343,8 +3375,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3392,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.12</v>
+        <v>11.27</v>
       </c>
       <c r="C85" t="n">
-        <v>11.05</v>
+        <v>11.29</v>
       </c>
       <c r="D85" t="n">
-        <v>11.12</v>
+        <v>11.29</v>
       </c>
       <c r="E85" t="n">
-        <v>11.05</v>
+        <v>11.27</v>
       </c>
       <c r="F85" t="n">
-        <v>619366.8643</v>
+        <v>1300</v>
       </c>
       <c r="G85" t="n">
-        <v>11.1685</v>
+        <v>11.1625</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3378,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3389,22 +3433,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.1</v>
+        <v>11.12</v>
       </c>
       <c r="C86" t="n">
-        <v>11.1</v>
+        <v>11.05</v>
       </c>
       <c r="D86" t="n">
-        <v>11.1</v>
+        <v>11.12</v>
       </c>
       <c r="E86" t="n">
-        <v>11.1</v>
+        <v>11.05</v>
       </c>
       <c r="F86" t="n">
-        <v>2549.2672</v>
+        <v>619366.8643</v>
       </c>
       <c r="G86" t="n">
-        <v>11.173</v>
+        <v>11.1685</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3413,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3427,19 +3477,19 @@
         <v>11.1</v>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D87" t="n">
         <v>11.1</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F87" t="n">
-        <v>77683.0769</v>
+        <v>2549.2672</v>
       </c>
       <c r="G87" t="n">
-        <v>11.17566666666666</v>
+        <v>11.173</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3448,8 +3498,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3459,22 +3515,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10.99</v>
+        <v>11.1</v>
       </c>
       <c r="C88" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>10.99</v>
+        <v>11.1</v>
       </c>
       <c r="E88" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>5259.327</v>
+        <v>77683.0769</v>
       </c>
       <c r="G88" t="n">
-        <v>11.17833333333333</v>
+        <v>11.17566666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3483,8 +3539,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3494,22 +3556,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.97</v>
+        <v>10.99</v>
       </c>
       <c r="C89" t="n">
-        <v>10.89</v>
+        <v>10.99</v>
       </c>
       <c r="D89" t="n">
-        <v>10.97</v>
+        <v>10.99</v>
       </c>
       <c r="E89" t="n">
-        <v>10.89</v>
+        <v>10.99</v>
       </c>
       <c r="F89" t="n">
-        <v>175937.8735</v>
+        <v>5259.327</v>
       </c>
       <c r="G89" t="n">
-        <v>11.17933333333333</v>
+        <v>11.17833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3518,8 +3580,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3529,22 +3597,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.91</v>
+        <v>10.97</v>
       </c>
       <c r="C90" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="D90" t="n">
-        <v>10.91</v>
+        <v>10.97</v>
       </c>
       <c r="E90" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="F90" t="n">
-        <v>1600</v>
+        <v>175937.8735</v>
       </c>
       <c r="G90" t="n">
-        <v>11.17999999999999</v>
+        <v>11.17933333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3553,8 +3621,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3564,22 +3638,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.97</v>
+        <v>10.91</v>
       </c>
       <c r="C91" t="n">
-        <v>10.97</v>
+        <v>10.91</v>
       </c>
       <c r="D91" t="n">
-        <v>10.97</v>
+        <v>10.91</v>
       </c>
       <c r="E91" t="n">
-        <v>10.97</v>
+        <v>10.91</v>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>1600</v>
       </c>
       <c r="G91" t="n">
-        <v>11.18166666666666</v>
+        <v>11.17999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3588,8 +3662,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3611,10 +3691,10 @@
         <v>10.97</v>
       </c>
       <c r="F92" t="n">
-        <v>308.9364</v>
+        <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>11.18533333333333</v>
+        <v>11.18166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3623,8 +3703,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3646,10 +3732,10 @@
         <v>10.97</v>
       </c>
       <c r="F93" t="n">
-        <v>2504.9242</v>
+        <v>308.9364</v>
       </c>
       <c r="G93" t="n">
-        <v>11.18699999999999</v>
+        <v>11.18533333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3658,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3669,22 +3761,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.98</v>
+        <v>10.97</v>
       </c>
       <c r="C94" t="n">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
       <c r="D94" t="n">
-        <v>10.98</v>
+        <v>10.97</v>
       </c>
       <c r="E94" t="n">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
       <c r="F94" t="n">
-        <v>150243.859</v>
+        <v>2504.9242</v>
       </c>
       <c r="G94" t="n">
-        <v>11.18733333333333</v>
+        <v>11.18699999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3693,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3704,22 +3802,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.91</v>
+        <v>10.98</v>
       </c>
       <c r="C95" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="D95" t="n">
-        <v>10.91</v>
+        <v>10.98</v>
       </c>
       <c r="E95" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="F95" t="n">
-        <v>61224.6172</v>
+        <v>150243.859</v>
       </c>
       <c r="G95" t="n">
-        <v>11.18699999999999</v>
+        <v>11.18733333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3728,8 +3826,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3751,10 +3855,10 @@
         <v>10.91</v>
       </c>
       <c r="F96" t="n">
-        <v>8244.5028</v>
+        <v>61224.6172</v>
       </c>
       <c r="G96" t="n">
-        <v>11.18566666666666</v>
+        <v>11.18699999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3763,8 +3867,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3774,22 +3884,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.18</v>
+        <v>10.91</v>
       </c>
       <c r="C97" t="n">
-        <v>11.19</v>
+        <v>10.91</v>
       </c>
       <c r="D97" t="n">
-        <v>11.19</v>
+        <v>10.91</v>
       </c>
       <c r="E97" t="n">
-        <v>11.18</v>
+        <v>10.91</v>
       </c>
       <c r="F97" t="n">
-        <v>370</v>
+        <v>8244.5028</v>
       </c>
       <c r="G97" t="n">
-        <v>11.18899999999999</v>
+        <v>11.18566666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3798,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3809,22 +3925,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.1</v>
+        <v>11.18</v>
       </c>
       <c r="C98" t="n">
-        <v>11.1</v>
+        <v>11.19</v>
       </c>
       <c r="D98" t="n">
-        <v>11.1</v>
+        <v>11.19</v>
       </c>
       <c r="E98" t="n">
-        <v>11.1</v>
+        <v>11.18</v>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="G98" t="n">
-        <v>11.19233333333333</v>
+        <v>11.18899999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,8 +3949,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3856,10 +3978,10 @@
         <v>11.1</v>
       </c>
       <c r="F99" t="n">
-        <v>4118.8326</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="n">
-        <v>11.196</v>
+        <v>11.19233333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,8 +3990,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3891,10 +4019,10 @@
         <v>11.1</v>
       </c>
       <c r="F100" t="n">
-        <v>14395.6557</v>
+        <v>4118.8326</v>
       </c>
       <c r="G100" t="n">
-        <v>11.19766666666666</v>
+        <v>11.196</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3903,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,32 +4048,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D101" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E101" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F101" t="n">
-        <v>1540.3834</v>
+        <v>14395.6557</v>
       </c>
       <c r="G101" t="n">
         <v>11.19766666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3961,7 +4103,7 @@
         <v>11</v>
       </c>
       <c r="F102" t="n">
-        <v>4279.63</v>
+        <v>1540.3834</v>
       </c>
       <c r="G102" t="n">
         <v>11.19766666666666</v>
@@ -3973,8 +4115,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4132,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.94</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
-        <v>10.91</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>10.94</v>
+        <v>11</v>
       </c>
       <c r="E103" t="n">
-        <v>10.91</v>
+        <v>11</v>
       </c>
       <c r="F103" t="n">
-        <v>159389.4074</v>
+        <v>4279.63</v>
       </c>
       <c r="G103" t="n">
-        <v>11.1945</v>
+        <v>11.19766666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4008,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4173,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10.91</v>
+        <v>10.94</v>
       </c>
       <c r="C104" t="n">
         <v>10.91</v>
       </c>
       <c r="D104" t="n">
-        <v>10.91</v>
+        <v>10.94</v>
       </c>
       <c r="E104" t="n">
         <v>10.91</v>
       </c>
       <c r="F104" t="n">
-        <v>4985.0241</v>
+        <v>159389.4074</v>
       </c>
       <c r="G104" t="n">
-        <v>11.19133333333333</v>
+        <v>11.1945</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4043,8 +4197,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4066,10 +4226,10 @@
         <v>10.91</v>
       </c>
       <c r="F105" t="n">
-        <v>13508.7</v>
+        <v>4985.0241</v>
       </c>
       <c r="G105" t="n">
-        <v>11.18733333333333</v>
+        <v>11.19133333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4078,8 +4238,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4089,22 +4255,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.09</v>
+        <v>10.91</v>
       </c>
       <c r="C106" t="n">
-        <v>11.09</v>
+        <v>10.91</v>
       </c>
       <c r="D106" t="n">
-        <v>11.09</v>
+        <v>10.91</v>
       </c>
       <c r="E106" t="n">
-        <v>11.09</v>
+        <v>10.91</v>
       </c>
       <c r="F106" t="n">
-        <v>50</v>
+        <v>13508.7</v>
       </c>
       <c r="G106" t="n">
-        <v>11.18549999999999</v>
+        <v>11.18733333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4113,8 +4279,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4296,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10.92</v>
+        <v>11.09</v>
       </c>
       <c r="C107" t="n">
-        <v>10.9</v>
+        <v>11.09</v>
       </c>
       <c r="D107" t="n">
-        <v>10.92</v>
+        <v>11.09</v>
       </c>
       <c r="E107" t="n">
-        <v>10.9</v>
+        <v>11.09</v>
       </c>
       <c r="F107" t="n">
-        <v>131304.0786</v>
+        <v>50</v>
       </c>
       <c r="G107" t="n">
-        <v>11.17549999999999</v>
+        <v>11.18549999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4148,8 +4320,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +4337,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.91</v>
+        <v>10.92</v>
       </c>
       <c r="C108" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="D108" t="n">
-        <v>10.91</v>
+        <v>10.92</v>
       </c>
       <c r="E108" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="F108" t="n">
-        <v>93.9735</v>
+        <v>131304.0786</v>
       </c>
       <c r="G108" t="n">
-        <v>11.16399999999999</v>
+        <v>11.17549999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4183,8 +4361,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4197,19 +4381,19 @@
         <v>10.91</v>
       </c>
       <c r="C109" t="n">
-        <v>11.03</v>
+        <v>10.91</v>
       </c>
       <c r="D109" t="n">
-        <v>11.03</v>
+        <v>10.91</v>
       </c>
       <c r="E109" t="n">
         <v>10.91</v>
       </c>
       <c r="F109" t="n">
-        <v>7913.0834</v>
+        <v>93.9735</v>
       </c>
       <c r="G109" t="n">
-        <v>11.15449999999999</v>
+        <v>11.16399999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4218,8 +4402,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,22 +4419,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.01</v>
+        <v>10.91</v>
       </c>
       <c r="C110" t="n">
-        <v>11.01</v>
+        <v>11.03</v>
       </c>
       <c r="D110" t="n">
-        <v>11.01</v>
+        <v>11.03</v>
       </c>
       <c r="E110" t="n">
-        <v>11.01</v>
+        <v>10.91</v>
       </c>
       <c r="F110" t="n">
-        <v>1812.0004</v>
+        <v>7913.0834</v>
       </c>
       <c r="G110" t="n">
-        <v>11.14466666666666</v>
+        <v>11.15449999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4253,8 +4443,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +4460,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10.92</v>
+        <v>11.01</v>
       </c>
       <c r="C111" t="n">
-        <v>10.92</v>
+        <v>11.01</v>
       </c>
       <c r="D111" t="n">
-        <v>10.92</v>
+        <v>11.01</v>
       </c>
       <c r="E111" t="n">
-        <v>10.92</v>
+        <v>11.01</v>
       </c>
       <c r="F111" t="n">
-        <v>83.05759999999999</v>
+        <v>1812.0004</v>
       </c>
       <c r="G111" t="n">
-        <v>11.13666666666666</v>
+        <v>11.14466666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4288,8 +4484,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4302,19 +4504,19 @@
         <v>10.92</v>
       </c>
       <c r="C112" t="n">
-        <v>10.9</v>
+        <v>10.92</v>
       </c>
       <c r="D112" t="n">
         <v>10.92</v>
       </c>
       <c r="E112" t="n">
-        <v>10.9</v>
+        <v>10.92</v>
       </c>
       <c r="F112" t="n">
-        <v>79651.7066</v>
+        <v>83.05759999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>11.12683333333332</v>
+        <v>11.13666666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,8 +4525,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4542,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10.9</v>
+        <v>10.92</v>
       </c>
       <c r="C113" t="n">
         <v>10.9</v>
       </c>
       <c r="D113" t="n">
-        <v>10.9</v>
+        <v>10.92</v>
       </c>
       <c r="E113" t="n">
         <v>10.9</v>
       </c>
       <c r="F113" t="n">
-        <v>12979.1334</v>
+        <v>79651.7066</v>
       </c>
       <c r="G113" t="n">
-        <v>11.11516666666666</v>
+        <v>11.12683333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4358,8 +4566,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4369,22 +4583,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="C114" t="n">
-        <v>10.86</v>
+        <v>10.9</v>
       </c>
       <c r="D114" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="E114" t="n">
-        <v>10.86</v>
+        <v>10.9</v>
       </c>
       <c r="F114" t="n">
-        <v>164880.2514</v>
+        <v>12979.1334</v>
       </c>
       <c r="G114" t="n">
-        <v>11.10449999999999</v>
+        <v>11.11516666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,8 +4607,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4404,22 +4624,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>10.86</v>
+        <v>10.89</v>
       </c>
       <c r="C115" t="n">
         <v>10.86</v>
       </c>
       <c r="D115" t="n">
-        <v>10.86</v>
+        <v>10.89</v>
       </c>
       <c r="E115" t="n">
         <v>10.86</v>
       </c>
       <c r="F115" t="n">
-        <v>5022.8028</v>
+        <v>164880.2514</v>
       </c>
       <c r="G115" t="n">
-        <v>11.09399999999999</v>
+        <v>11.10449999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,8 +4648,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4451,10 +4677,10 @@
         <v>10.86</v>
       </c>
       <c r="F116" t="n">
-        <v>47348.5225</v>
+        <v>5022.8028</v>
       </c>
       <c r="G116" t="n">
-        <v>11.08366666666666</v>
+        <v>11.09399999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,8 +4689,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4486,10 +4718,10 @@
         <v>10.86</v>
       </c>
       <c r="F117" t="n">
-        <v>54692.0449</v>
+        <v>47348.5225</v>
       </c>
       <c r="G117" t="n">
-        <v>11.07349999999999</v>
+        <v>11.08366666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,8 +4730,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4521,10 +4759,10 @@
         <v>10.86</v>
       </c>
       <c r="F118" t="n">
-        <v>592.3055000000001</v>
+        <v>54692.0449</v>
       </c>
       <c r="G118" t="n">
-        <v>11.06616666666666</v>
+        <v>11.07349999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4556,10 +4800,10 @@
         <v>10.86</v>
       </c>
       <c r="F119" t="n">
-        <v>2473.5507</v>
+        <v>592.3055000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>11.05583333333332</v>
+        <v>11.06616666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4582,19 +4832,19 @@
         <v>10.86</v>
       </c>
       <c r="C120" t="n">
-        <v>10.8</v>
+        <v>10.86</v>
       </c>
       <c r="D120" t="n">
         <v>10.86</v>
       </c>
       <c r="E120" t="n">
-        <v>10.8</v>
+        <v>10.86</v>
       </c>
       <c r="F120" t="n">
-        <v>65000</v>
+        <v>2473.5507</v>
       </c>
       <c r="G120" t="n">
-        <v>11.04766666666666</v>
+        <v>11.05583333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,8 +4853,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4870,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>10.81</v>
+        <v>10.86</v>
       </c>
       <c r="C121" t="n">
         <v>10.8</v>
       </c>
       <c r="D121" t="n">
-        <v>10.81</v>
+        <v>10.86</v>
       </c>
       <c r="E121" t="n">
         <v>10.8</v>
       </c>
       <c r="F121" t="n">
-        <v>124218.4546</v>
+        <v>65000</v>
       </c>
       <c r="G121" t="n">
-        <v>11.03949999999999</v>
+        <v>11.04766666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +4911,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="C122" t="n">
         <v>10.8</v>
       </c>
       <c r="D122" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="E122" t="n">
         <v>10.8</v>
       </c>
       <c r="F122" t="n">
-        <v>9622.8863</v>
+        <v>124218.4546</v>
       </c>
       <c r="G122" t="n">
-        <v>11.03283333333332</v>
+        <v>11.03949999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,8 +4935,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4687,19 +4955,19 @@
         <v>10.8</v>
       </c>
       <c r="C123" t="n">
-        <v>10.51</v>
+        <v>10.8</v>
       </c>
       <c r="D123" t="n">
         <v>10.8</v>
       </c>
       <c r="E123" t="n">
-        <v>10.51</v>
+        <v>10.8</v>
       </c>
       <c r="F123" t="n">
-        <v>253685.4517</v>
+        <v>9622.8863</v>
       </c>
       <c r="G123" t="n">
-        <v>11.02333333333332</v>
+        <v>11.03283333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4719,22 +4993,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>10.79</v>
+        <v>10.8</v>
       </c>
       <c r="C124" t="n">
-        <v>10.79</v>
+        <v>10.51</v>
       </c>
       <c r="D124" t="n">
-        <v>10.79</v>
+        <v>10.8</v>
       </c>
       <c r="E124" t="n">
-        <v>10.79</v>
+        <v>10.51</v>
       </c>
       <c r="F124" t="n">
-        <v>22712.8628</v>
+        <v>253685.4517</v>
       </c>
       <c r="G124" t="n">
-        <v>11.01849999999999</v>
+        <v>11.02333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4754,22 +5034,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10.89</v>
+        <v>10.79</v>
       </c>
       <c r="C125" t="n">
-        <v>10.89</v>
+        <v>10.79</v>
       </c>
       <c r="D125" t="n">
-        <v>10.89</v>
+        <v>10.79</v>
       </c>
       <c r="E125" t="n">
-        <v>10.89</v>
+        <v>10.79</v>
       </c>
       <c r="F125" t="n">
-        <v>93.8245</v>
+        <v>22712.8628</v>
       </c>
       <c r="G125" t="n">
-        <v>11.01516666666665</v>
+        <v>11.01849999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4778,8 +5058,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4789,22 +5075,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10.78</v>
+        <v>10.89</v>
       </c>
       <c r="C126" t="n">
-        <v>10.79</v>
+        <v>10.89</v>
       </c>
       <c r="D126" t="n">
-        <v>10.79</v>
+        <v>10.89</v>
       </c>
       <c r="E126" t="n">
-        <v>10.78</v>
+        <v>10.89</v>
       </c>
       <c r="F126" t="n">
-        <v>27547.4816</v>
+        <v>93.8245</v>
       </c>
       <c r="G126" t="n">
-        <v>11.01033333333332</v>
+        <v>11.01516666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4813,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +5116,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>10.8</v>
+        <v>10.78</v>
       </c>
       <c r="C127" t="n">
-        <v>10.88</v>
+        <v>10.79</v>
       </c>
       <c r="D127" t="n">
-        <v>10.88</v>
+        <v>10.79</v>
       </c>
       <c r="E127" t="n">
-        <v>10.8</v>
+        <v>10.78</v>
       </c>
       <c r="F127" t="n">
-        <v>583.4545000000001</v>
+        <v>27547.4816</v>
       </c>
       <c r="G127" t="n">
-        <v>11.00549999999999</v>
+        <v>11.01033333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4848,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4859,7 +5157,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10.88</v>
+        <v>10.8</v>
       </c>
       <c r="C128" t="n">
         <v>10.88</v>
@@ -4868,13 +5166,13 @@
         <v>10.88</v>
       </c>
       <c r="E128" t="n">
-        <v>10.88</v>
+        <v>10.8</v>
       </c>
       <c r="F128" t="n">
-        <v>82.4545</v>
+        <v>583.4545000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>11.00016666666665</v>
+        <v>11.00549999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4883,8 +5181,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4894,22 +5198,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10.8</v>
+        <v>10.88</v>
       </c>
       <c r="C129" t="n">
-        <v>10.8</v>
+        <v>10.88</v>
       </c>
       <c r="D129" t="n">
-        <v>10.8</v>
+        <v>10.88</v>
       </c>
       <c r="E129" t="n">
-        <v>10.8</v>
+        <v>10.88</v>
       </c>
       <c r="F129" t="n">
-        <v>6613.513</v>
+        <v>82.4545</v>
       </c>
       <c r="G129" t="n">
-        <v>10.99016666666665</v>
+        <v>11.00016666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4918,8 +5222,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4929,22 +5239,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>10.87</v>
+        <v>10.8</v>
       </c>
       <c r="C130" t="n">
-        <v>10.89</v>
+        <v>10.8</v>
       </c>
       <c r="D130" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E130" t="n">
-        <v>10.87</v>
+        <v>10.8</v>
       </c>
       <c r="F130" t="n">
-        <v>122275.0270918349</v>
+        <v>6613.513</v>
       </c>
       <c r="G130" t="n">
-        <v>10.98166666666665</v>
+        <v>10.99016666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4953,8 +5263,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4964,22 +5280,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>10.91</v>
+        <v>10.87</v>
       </c>
       <c r="C131" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="D131" t="n">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="E131" t="n">
-        <v>10.91</v>
+        <v>10.87</v>
       </c>
       <c r="F131" t="n">
-        <v>1649.2985</v>
+        <v>122275.0270918349</v>
       </c>
       <c r="G131" t="n">
-        <v>10.97683333333332</v>
+        <v>10.98166666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4988,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4999,22 +5321,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10.83</v>
+        <v>10.91</v>
       </c>
       <c r="C132" t="n">
-        <v>10.83</v>
+        <v>10.91</v>
       </c>
       <c r="D132" t="n">
-        <v>10.83</v>
+        <v>10.91</v>
       </c>
       <c r="E132" t="n">
-        <v>10.83</v>
+        <v>10.91</v>
       </c>
       <c r="F132" t="n">
-        <v>4610</v>
+        <v>1649.2985</v>
       </c>
       <c r="G132" t="n">
-        <v>10.97066666666665</v>
+        <v>10.97683333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5023,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5046,10 +5374,10 @@
         <v>10.83</v>
       </c>
       <c r="F133" t="n">
-        <v>341.0651</v>
+        <v>4610</v>
       </c>
       <c r="G133" t="n">
-        <v>10.96116666666665</v>
+        <v>10.97066666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5058,8 +5386,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5081,10 +5415,10 @@
         <v>10.83</v>
       </c>
       <c r="F134" t="n">
-        <v>277.2558</v>
+        <v>341.0651</v>
       </c>
       <c r="G134" t="n">
-        <v>10.95499999999998</v>
+        <v>10.96116666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5093,8 +5427,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5104,22 +5444,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>10.76</v>
+        <v>10.83</v>
       </c>
       <c r="C135" t="n">
-        <v>10.76</v>
+        <v>10.83</v>
       </c>
       <c r="D135" t="n">
-        <v>10.76</v>
+        <v>10.83</v>
       </c>
       <c r="E135" t="n">
-        <v>10.76</v>
+        <v>10.83</v>
       </c>
       <c r="F135" t="n">
-        <v>3005.5184</v>
+        <v>277.2558</v>
       </c>
       <c r="G135" t="n">
-        <v>10.94766666666665</v>
+        <v>10.95499999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5128,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5139,22 +5485,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10.78</v>
+        <v>10.76</v>
       </c>
       <c r="C136" t="n">
-        <v>10.78</v>
+        <v>10.76</v>
       </c>
       <c r="D136" t="n">
-        <v>10.78</v>
+        <v>10.76</v>
       </c>
       <c r="E136" t="n">
-        <v>10.78</v>
+        <v>10.76</v>
       </c>
       <c r="F136" t="n">
-        <v>1649.2985</v>
+        <v>3005.5184</v>
       </c>
       <c r="G136" t="n">
-        <v>10.94066666666665</v>
+        <v>10.94766666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5163,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5174,22 +5526,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10.82</v>
+        <v>10.78</v>
       </c>
       <c r="C137" t="n">
-        <v>10.83</v>
+        <v>10.78</v>
       </c>
       <c r="D137" t="n">
-        <v>10.83</v>
+        <v>10.78</v>
       </c>
       <c r="E137" t="n">
-        <v>10.82</v>
+        <v>10.78</v>
       </c>
       <c r="F137" t="n">
-        <v>58006.1217</v>
+        <v>1649.2985</v>
       </c>
       <c r="G137" t="n">
-        <v>10.93599999999998</v>
+        <v>10.94066666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5198,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5209,22 +5567,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>10.88</v>
+        <v>10.82</v>
       </c>
       <c r="C138" t="n">
         <v>10.83</v>
       </c>
       <c r="D138" t="n">
-        <v>10.88</v>
+        <v>10.83</v>
       </c>
       <c r="E138" t="n">
-        <v>10.83</v>
+        <v>10.82</v>
       </c>
       <c r="F138" t="n">
-        <v>71944.7981</v>
+        <v>58006.1217</v>
       </c>
       <c r="G138" t="n">
-        <v>10.93133333333332</v>
+        <v>10.93599999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5233,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5244,22 +5608,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>10.83</v>
+        <v>10.88</v>
       </c>
       <c r="C139" t="n">
         <v>10.83</v>
       </c>
       <c r="D139" t="n">
-        <v>10.83</v>
+        <v>10.88</v>
       </c>
       <c r="E139" t="n">
         <v>10.83</v>
       </c>
       <c r="F139" t="n">
-        <v>18271.0269</v>
+        <v>71944.7981</v>
       </c>
       <c r="G139" t="n">
-        <v>10.92716666666665</v>
+        <v>10.93133333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5268,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5291,10 +5661,10 @@
         <v>10.83</v>
       </c>
       <c r="F140" t="n">
-        <v>2111.1838</v>
+        <v>18271.0269</v>
       </c>
       <c r="G140" t="n">
-        <v>10.92333333333332</v>
+        <v>10.92716666666665</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5303,8 +5673,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5326,10 +5702,10 @@
         <v>10.83</v>
       </c>
       <c r="F141" t="n">
-        <v>57258.6562</v>
+        <v>2111.1838</v>
       </c>
       <c r="G141" t="n">
-        <v>10.91566666666665</v>
+        <v>10.92333333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5338,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5352,19 +5734,19 @@
         <v>10.83</v>
       </c>
       <c r="C142" t="n">
-        <v>10.97</v>
+        <v>10.83</v>
       </c>
       <c r="D142" t="n">
-        <v>10.97</v>
+        <v>10.83</v>
       </c>
       <c r="E142" t="n">
-        <v>10.8</v>
+        <v>10.83</v>
       </c>
       <c r="F142" t="n">
-        <v>39828.1844</v>
+        <v>57258.6562</v>
       </c>
       <c r="G142" t="n">
-        <v>10.91399999999999</v>
+        <v>10.91566666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5373,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5384,22 +5772,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>10.81</v>
+        <v>10.83</v>
       </c>
       <c r="C143" t="n">
-        <v>10.78</v>
+        <v>10.97</v>
       </c>
       <c r="D143" t="n">
-        <v>10.81</v>
+        <v>10.97</v>
       </c>
       <c r="E143" t="n">
-        <v>10.78</v>
+        <v>10.8</v>
       </c>
       <c r="F143" t="n">
-        <v>152999.467</v>
+        <v>39828.1844</v>
       </c>
       <c r="G143" t="n">
-        <v>10.90949999999999</v>
+        <v>10.91399999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5408,8 +5796,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5419,22 +5813,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>10.78</v>
+        <v>10.81</v>
       </c>
       <c r="C144" t="n">
         <v>10.78</v>
       </c>
       <c r="D144" t="n">
-        <v>10.78</v>
+        <v>10.81</v>
       </c>
       <c r="E144" t="n">
         <v>10.78</v>
       </c>
       <c r="F144" t="n">
-        <v>700</v>
+        <v>152999.467</v>
       </c>
       <c r="G144" t="n">
-        <v>10.90099999999999</v>
+        <v>10.90949999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5443,8 +5837,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5454,22 +5854,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>10.96</v>
+        <v>10.78</v>
       </c>
       <c r="C145" t="n">
-        <v>10.96</v>
+        <v>10.78</v>
       </c>
       <c r="D145" t="n">
-        <v>10.96</v>
+        <v>10.78</v>
       </c>
       <c r="E145" t="n">
-        <v>10.96</v>
+        <v>10.78</v>
       </c>
       <c r="F145" t="n">
-        <v>48.4444</v>
+        <v>700</v>
       </c>
       <c r="G145" t="n">
-        <v>10.89949999999999</v>
+        <v>10.90099999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5478,8 +5878,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5501,10 +5907,10 @@
         <v>10.96</v>
       </c>
       <c r="F146" t="n">
-        <v>851.4019</v>
+        <v>48.4444</v>
       </c>
       <c r="G146" t="n">
-        <v>10.89716666666665</v>
+        <v>10.89949999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5513,8 +5919,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5536,10 +5948,10 @@
         <v>10.96</v>
       </c>
       <c r="F147" t="n">
-        <v>1809.6086</v>
+        <v>851.4019</v>
       </c>
       <c r="G147" t="n">
-        <v>10.89649999999999</v>
+        <v>10.89716666666665</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5548,8 +5960,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5559,22 +5977,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>10.94</v>
+        <v>10.96</v>
       </c>
       <c r="C148" t="n">
-        <v>10.94</v>
+        <v>10.96</v>
       </c>
       <c r="D148" t="n">
-        <v>10.94</v>
+        <v>10.96</v>
       </c>
       <c r="E148" t="n">
-        <v>10.94</v>
+        <v>10.96</v>
       </c>
       <c r="F148" t="n">
-        <v>27855.647</v>
+        <v>1809.6086</v>
       </c>
       <c r="G148" t="n">
-        <v>10.89566666666665</v>
+        <v>10.89649999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5583,8 +6001,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5606,10 +6030,10 @@
         <v>10.94</v>
       </c>
       <c r="F149" t="n">
-        <v>82129.1332</v>
+        <v>27855.647</v>
       </c>
       <c r="G149" t="n">
-        <v>10.89649999999999</v>
+        <v>10.89566666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5618,8 +6042,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5641,10 +6071,10 @@
         <v>10.94</v>
       </c>
       <c r="F150" t="n">
-        <v>12400.9829</v>
+        <v>82129.1332</v>
       </c>
       <c r="G150" t="n">
-        <v>10.89699999999999</v>
+        <v>10.89649999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5653,8 +6083,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5664,22 +6100,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>10.81</v>
+        <v>10.94</v>
       </c>
       <c r="C151" t="n">
-        <v>10.96</v>
+        <v>10.94</v>
       </c>
       <c r="D151" t="n">
-        <v>10.96</v>
+        <v>10.94</v>
       </c>
       <c r="E151" t="n">
-        <v>10.81</v>
+        <v>10.94</v>
       </c>
       <c r="F151" t="n">
-        <v>9652.706</v>
+        <v>12400.9829</v>
       </c>
       <c r="G151" t="n">
-        <v>10.89683333333332</v>
+        <v>10.89699999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5688,8 +6124,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5699,7 +6141,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10.96</v>
+        <v>10.81</v>
       </c>
       <c r="C152" t="n">
         <v>10.96</v>
@@ -5708,13 +6150,13 @@
         <v>10.96</v>
       </c>
       <c r="E152" t="n">
-        <v>10.96</v>
+        <v>10.81</v>
       </c>
       <c r="F152" t="n">
-        <v>45.6205</v>
+        <v>9652.706</v>
       </c>
       <c r="G152" t="n">
-        <v>10.89666666666666</v>
+        <v>10.89683333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5723,8 +6165,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5746,10 +6194,10 @@
         <v>10.96</v>
       </c>
       <c r="F153" t="n">
-        <v>136.8614</v>
+        <v>45.6205</v>
       </c>
       <c r="G153" t="n">
-        <v>10.89649999999999</v>
+        <v>10.89666666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5758,8 +6206,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5781,10 +6235,10 @@
         <v>10.96</v>
       </c>
       <c r="F154" t="n">
-        <v>91</v>
+        <v>136.8614</v>
       </c>
       <c r="G154" t="n">
-        <v>10.89749999999999</v>
+        <v>10.89649999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5793,8 +6247,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5816,10 +6276,10 @@
         <v>10.96</v>
       </c>
       <c r="F155" t="n">
-        <v>546</v>
+        <v>91</v>
       </c>
       <c r="G155" t="n">
-        <v>10.89833333333333</v>
+        <v>10.89749999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5828,8 +6288,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5839,22 +6305,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>10.82</v>
+        <v>10.96</v>
       </c>
       <c r="C156" t="n">
-        <v>10.82</v>
+        <v>10.96</v>
       </c>
       <c r="D156" t="n">
-        <v>10.82</v>
+        <v>10.96</v>
       </c>
       <c r="E156" t="n">
-        <v>10.82</v>
+        <v>10.96</v>
       </c>
       <c r="F156" t="n">
-        <v>183.3694</v>
+        <v>546</v>
       </c>
       <c r="G156" t="n">
-        <v>10.89683333333333</v>
+        <v>10.89833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5863,8 +6329,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5877,19 +6349,19 @@
         <v>10.82</v>
       </c>
       <c r="C157" t="n">
-        <v>10.95</v>
+        <v>10.82</v>
       </c>
       <c r="D157" t="n">
-        <v>10.95</v>
+        <v>10.82</v>
       </c>
       <c r="E157" t="n">
         <v>10.82</v>
       </c>
       <c r="F157" t="n">
-        <v>1477.5499</v>
+        <v>183.3694</v>
       </c>
       <c r="G157" t="n">
-        <v>10.89283333333333</v>
+        <v>10.89683333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5898,8 +6370,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5909,22 +6387,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="C158" t="n">
         <v>10.95</v>
       </c>
-      <c r="C158" t="n">
-        <v>11.03</v>
-      </c>
       <c r="D158" t="n">
-        <v>11.03</v>
+        <v>10.95</v>
       </c>
       <c r="E158" t="n">
-        <v>10.95</v>
+        <v>10.82</v>
       </c>
       <c r="F158" t="n">
-        <v>1395.9377</v>
+        <v>1477.5499</v>
       </c>
       <c r="G158" t="n">
-        <v>10.89166666666666</v>
+        <v>10.89283333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5933,8 +6411,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5944,22 +6428,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.04</v>
+        <v>10.95</v>
       </c>
       <c r="C159" t="n">
-        <v>11.04</v>
+        <v>11.03</v>
       </c>
       <c r="D159" t="n">
-        <v>11.04</v>
+        <v>11.03</v>
       </c>
       <c r="E159" t="n">
-        <v>11.04</v>
+        <v>10.95</v>
       </c>
       <c r="F159" t="n">
-        <v>50</v>
+        <v>1395.9377</v>
       </c>
       <c r="G159" t="n">
-        <v>10.89066666666666</v>
+        <v>10.89166666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5968,8 +6452,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5982,19 +6472,19 @@
         <v>11.04</v>
       </c>
       <c r="C160" t="n">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="D160" t="n">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="E160" t="n">
         <v>11.04</v>
       </c>
       <c r="F160" t="n">
-        <v>24041.98369502262</v>
+        <v>50</v>
       </c>
       <c r="G160" t="n">
-        <v>10.88983333333332</v>
+        <v>10.89066666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6003,8 +6493,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6014,7 +6510,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="C161" t="n">
         <v>11.05</v>
@@ -6023,13 +6519,13 @@
         <v>11.05</v>
       </c>
       <c r="E161" t="n">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="F161" t="n">
-        <v>34228.945</v>
+        <v>24041.98369502262</v>
       </c>
       <c r="G161" t="n">
-        <v>10.89066666666666</v>
+        <v>10.88983333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6038,8 +6534,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6052,19 +6554,19 @@
         <v>11.05</v>
       </c>
       <c r="C162" t="n">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
       <c r="D162" t="n">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
       <c r="E162" t="n">
         <v>11.05</v>
       </c>
       <c r="F162" t="n">
-        <v>5512.006904977376</v>
+        <v>34228.945</v>
       </c>
       <c r="G162" t="n">
-        <v>10.89183333333333</v>
+        <v>10.89066666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6073,8 +6575,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6087,19 +6595,19 @@
         <v>11.05</v>
       </c>
       <c r="C163" t="n">
-        <v>11.05</v>
+        <v>11.07</v>
       </c>
       <c r="D163" t="n">
-        <v>11.05</v>
+        <v>11.07</v>
       </c>
       <c r="E163" t="n">
         <v>11.05</v>
       </c>
       <c r="F163" t="n">
-        <v>29758.00769502262</v>
+        <v>5512.006904977376</v>
       </c>
       <c r="G163" t="n">
-        <v>10.89416666666666</v>
+        <v>10.89183333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6108,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6131,10 +6645,10 @@
         <v>11.05</v>
       </c>
       <c r="F164" t="n">
-        <v>3709.2943</v>
+        <v>29758.00769502262</v>
       </c>
       <c r="G164" t="n">
-        <v>10.89649999999999</v>
+        <v>10.89416666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6143,8 +6657,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6157,19 +6677,19 @@
         <v>11.05</v>
       </c>
       <c r="C165" t="n">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
       <c r="D165" t="n">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
       <c r="E165" t="n">
         <v>11.05</v>
       </c>
       <c r="F165" t="n">
-        <v>16692.1858</v>
+        <v>3709.2943</v>
       </c>
       <c r="G165" t="n">
-        <v>10.89916666666666</v>
+        <v>10.89649999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6178,8 +6698,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6189,22 +6715,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>11.08</v>
+        <v>11.05</v>
       </c>
       <c r="C166" t="n">
-        <v>11.08</v>
+        <v>11.07</v>
       </c>
       <c r="D166" t="n">
-        <v>11.08</v>
+        <v>11.07</v>
       </c>
       <c r="E166" t="n">
-        <v>11.08</v>
+        <v>11.05</v>
       </c>
       <c r="F166" t="n">
-        <v>103.593</v>
+        <v>16692.1858</v>
       </c>
       <c r="G166" t="n">
-        <v>10.89899999999999</v>
+        <v>10.89916666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6213,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6236,10 +6768,10 @@
         <v>11.08</v>
       </c>
       <c r="F167" t="n">
-        <v>62.7696</v>
+        <v>103.593</v>
       </c>
       <c r="G167" t="n">
-        <v>10.90199999999999</v>
+        <v>10.89899999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6248,8 +6780,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6259,22 +6797,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>11.14</v>
+        <v>11.08</v>
       </c>
       <c r="C168" t="n">
-        <v>11.14</v>
+        <v>11.08</v>
       </c>
       <c r="D168" t="n">
-        <v>11.14</v>
+        <v>11.08</v>
       </c>
       <c r="E168" t="n">
-        <v>11.14</v>
+        <v>11.08</v>
       </c>
       <c r="F168" t="n">
-        <v>44.8834</v>
+        <v>62.7696</v>
       </c>
       <c r="G168" t="n">
-        <v>10.90583333333333</v>
+        <v>10.90199999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6283,8 +6821,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6306,10 +6850,10 @@
         <v>11.14</v>
       </c>
       <c r="F169" t="n">
-        <v>19800</v>
+        <v>44.8834</v>
       </c>
       <c r="G169" t="n">
-        <v>10.90766666666666</v>
+        <v>10.90583333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6318,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6329,22 +6879,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.15</v>
+        <v>11.14</v>
       </c>
       <c r="C170" t="n">
-        <v>11.15</v>
+        <v>11.14</v>
       </c>
       <c r="D170" t="n">
-        <v>11.15</v>
+        <v>11.14</v>
       </c>
       <c r="E170" t="n">
-        <v>11.15</v>
+        <v>11.14</v>
       </c>
       <c r="F170" t="n">
-        <v>3096.4876</v>
+        <v>19800</v>
       </c>
       <c r="G170" t="n">
-        <v>10.90999999999999</v>
+        <v>10.90766666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6353,8 +6903,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6364,22 +6920,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.14</v>
+        <v>11.15</v>
       </c>
       <c r="C171" t="n">
-        <v>11.14</v>
+        <v>11.15</v>
       </c>
       <c r="D171" t="n">
-        <v>11.14</v>
+        <v>11.15</v>
       </c>
       <c r="E171" t="n">
-        <v>11.14</v>
+        <v>11.15</v>
       </c>
       <c r="F171" t="n">
-        <v>19000</v>
+        <v>3096.4876</v>
       </c>
       <c r="G171" t="n">
-        <v>10.91366666666666</v>
+        <v>10.90999999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6388,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6399,22 +6961,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.17</v>
+        <v>11.14</v>
       </c>
       <c r="C172" t="n">
-        <v>11.17</v>
+        <v>11.14</v>
       </c>
       <c r="D172" t="n">
-        <v>11.17</v>
+        <v>11.14</v>
       </c>
       <c r="E172" t="n">
-        <v>11.17</v>
+        <v>11.14</v>
       </c>
       <c r="F172" t="n">
-        <v>139.5256</v>
+        <v>19000</v>
       </c>
       <c r="G172" t="n">
-        <v>10.91816666666666</v>
+        <v>10.91366666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6423,8 +6985,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6446,10 +7014,10 @@
         <v>11.17</v>
       </c>
       <c r="F173" t="n">
-        <v>44.7628</v>
+        <v>139.5256</v>
       </c>
       <c r="G173" t="n">
-        <v>10.92266666666666</v>
+        <v>10.91816666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6458,8 +7026,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6469,7 +7043,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>11.14</v>
+        <v>11.17</v>
       </c>
       <c r="C174" t="n">
         <v>11.17</v>
@@ -6478,13 +7052,13 @@
         <v>11.17</v>
       </c>
       <c r="E174" t="n">
-        <v>11.14</v>
+        <v>11.17</v>
       </c>
       <c r="F174" t="n">
-        <v>561.6205</v>
+        <v>44.7628</v>
       </c>
       <c r="G174" t="n">
-        <v>10.92783333333333</v>
+        <v>10.92266666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6493,8 +7067,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6504,22 +7084,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.1</v>
+        <v>11.14</v>
       </c>
       <c r="C175" t="n">
-        <v>11.04</v>
+        <v>11.17</v>
       </c>
       <c r="D175" t="n">
-        <v>11.1</v>
+        <v>11.17</v>
       </c>
       <c r="E175" t="n">
-        <v>11.04</v>
+        <v>11.14</v>
       </c>
       <c r="F175" t="n">
-        <v>7205.3142</v>
+        <v>561.6205</v>
       </c>
       <c r="G175" t="n">
-        <v>10.93083333333333</v>
+        <v>10.92783333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6528,8 +7108,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6539,22 +7125,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>11.03</v>
+        <v>11.1</v>
       </c>
       <c r="C176" t="n">
-        <v>11.14</v>
+        <v>11.04</v>
       </c>
       <c r="D176" t="n">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="E176" t="n">
-        <v>11.03</v>
+        <v>11.04</v>
       </c>
       <c r="F176" t="n">
-        <v>16691</v>
+        <v>7205.3142</v>
       </c>
       <c r="G176" t="n">
-        <v>10.93549999999999</v>
+        <v>10.93083333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6563,8 +7149,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6574,7 +7166,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>11.14</v>
+        <v>11.03</v>
       </c>
       <c r="C177" t="n">
         <v>11.14</v>
@@ -6583,13 +7175,13 @@
         <v>11.14</v>
       </c>
       <c r="E177" t="n">
-        <v>11.14</v>
+        <v>11.03</v>
       </c>
       <c r="F177" t="n">
-        <v>4488.3305</v>
+        <v>16691</v>
       </c>
       <c r="G177" t="n">
-        <v>10.94016666666666</v>
+        <v>10.93549999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6598,8 +7190,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6621,10 +7219,10 @@
         <v>11.14</v>
       </c>
       <c r="F178" t="n">
-        <v>455.2523</v>
+        <v>4488.3305</v>
       </c>
       <c r="G178" t="n">
-        <v>10.94483333333332</v>
+        <v>10.94016666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6633,8 +7231,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6656,10 +7260,10 @@
         <v>11.14</v>
       </c>
       <c r="F179" t="n">
-        <v>44.8834</v>
+        <v>455.2523</v>
       </c>
       <c r="G179" t="n">
-        <v>10.94949999999999</v>
+        <v>10.94483333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6668,8 +7272,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6679,22 +7289,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>11.04</v>
+        <v>11.14</v>
       </c>
       <c r="C180" t="n">
-        <v>11.04</v>
+        <v>11.14</v>
       </c>
       <c r="D180" t="n">
-        <v>11.04</v>
+        <v>11.14</v>
       </c>
       <c r="E180" t="n">
-        <v>11.04</v>
+        <v>11.14</v>
       </c>
       <c r="F180" t="n">
-        <v>5002.27</v>
+        <v>44.8834</v>
       </c>
       <c r="G180" t="n">
-        <v>10.95349999999999</v>
+        <v>10.94949999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6703,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6714,22 +7330,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11.14</v>
+        <v>11.04</v>
       </c>
       <c r="C181" t="n">
-        <v>11.14</v>
+        <v>11.04</v>
       </c>
       <c r="D181" t="n">
-        <v>11.14</v>
+        <v>11.04</v>
       </c>
       <c r="E181" t="n">
-        <v>11.14</v>
+        <v>11.04</v>
       </c>
       <c r="F181" t="n">
-        <v>558.9057</v>
+        <v>5002.27</v>
       </c>
       <c r="G181" t="n">
-        <v>10.95916666666666</v>
+        <v>10.95349999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6738,8 +7354,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6749,22 +7371,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>11.03</v>
+        <v>11.14</v>
       </c>
       <c r="C182" t="n">
-        <v>11.03</v>
+        <v>11.14</v>
       </c>
       <c r="D182" t="n">
-        <v>11.03</v>
+        <v>11.14</v>
       </c>
       <c r="E182" t="n">
-        <v>11.03</v>
+        <v>11.14</v>
       </c>
       <c r="F182" t="n">
-        <v>5011.86</v>
+        <v>558.9057</v>
       </c>
       <c r="G182" t="n">
-        <v>10.96299999999999</v>
+        <v>10.95916666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6773,8 +7395,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6787,19 +7415,19 @@
         <v>11.03</v>
       </c>
       <c r="C183" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="D183" t="n">
         <v>11.03</v>
       </c>
       <c r="E183" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="F183" t="n">
-        <v>14746.5714</v>
+        <v>5011.86</v>
       </c>
       <c r="G183" t="n">
-        <v>10.97116666666666</v>
+        <v>10.96299999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6808,8 +7436,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6819,22 +7453,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>11.14</v>
+        <v>11.03</v>
       </c>
       <c r="C184" t="n">
-        <v>11.14</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>11.14</v>
+        <v>11.03</v>
       </c>
       <c r="E184" t="n">
-        <v>11.14</v>
+        <v>11</v>
       </c>
       <c r="F184" t="n">
-        <v>50</v>
+        <v>14746.5714</v>
       </c>
       <c r="G184" t="n">
-        <v>10.97699999999999</v>
+        <v>10.97116666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6843,8 +7477,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6854,22 +7494,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>10.98</v>
+        <v>11.14</v>
       </c>
       <c r="C185" t="n">
-        <v>10.98</v>
+        <v>11.14</v>
       </c>
       <c r="D185" t="n">
-        <v>10.98</v>
+        <v>11.14</v>
       </c>
       <c r="E185" t="n">
-        <v>10.98</v>
+        <v>11.14</v>
       </c>
       <c r="F185" t="n">
-        <v>1955.3175</v>
+        <v>50</v>
       </c>
       <c r="G185" t="n">
-        <v>10.97849999999999</v>
+        <v>10.97699999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6878,8 +7518,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6901,10 +7547,10 @@
         <v>10.98</v>
       </c>
       <c r="F186" t="n">
-        <v>8196.7214</v>
+        <v>1955.3175</v>
       </c>
       <c r="G186" t="n">
-        <v>10.98166666666666</v>
+        <v>10.97849999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6913,8 +7559,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6924,22 +7576,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="C187" t="n">
-        <v>11.13</v>
+        <v>10.98</v>
       </c>
       <c r="D187" t="n">
-        <v>11.13</v>
+        <v>10.98</v>
       </c>
       <c r="E187" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="F187" t="n">
-        <v>100</v>
+        <v>8196.7214</v>
       </c>
       <c r="G187" t="n">
-        <v>10.98583333333333</v>
+        <v>10.98166666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6948,8 +7600,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6962,19 +7620,19 @@
         <v>10.99</v>
       </c>
       <c r="C188" t="n">
-        <v>10.99</v>
+        <v>11.13</v>
       </c>
       <c r="D188" t="n">
-        <v>10.99</v>
+        <v>11.13</v>
       </c>
       <c r="E188" t="n">
         <v>10.99</v>
       </c>
       <c r="F188" t="n">
-        <v>22242.993</v>
+        <v>100</v>
       </c>
       <c r="G188" t="n">
-        <v>10.98766666666666</v>
+        <v>10.98583333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6983,8 +7641,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6994,22 +7658,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>11.13</v>
+        <v>10.99</v>
       </c>
       <c r="C189" t="n">
-        <v>11.13</v>
+        <v>10.99</v>
       </c>
       <c r="D189" t="n">
-        <v>11.13</v>
+        <v>10.99</v>
       </c>
       <c r="E189" t="n">
-        <v>11.13</v>
+        <v>10.99</v>
       </c>
       <c r="F189" t="n">
-        <v>50</v>
+        <v>22242.993</v>
       </c>
       <c r="G189" t="n">
-        <v>10.99316666666666</v>
+        <v>10.98766666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7018,8 +7682,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7029,22 +7699,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>11.07</v>
+        <v>11.13</v>
       </c>
       <c r="C190" t="n">
-        <v>11.07</v>
+        <v>11.13</v>
       </c>
       <c r="D190" t="n">
-        <v>11.07</v>
+        <v>11.13</v>
       </c>
       <c r="E190" t="n">
-        <v>11.07</v>
+        <v>11.13</v>
       </c>
       <c r="F190" t="n">
         <v>50</v>
       </c>
       <c r="G190" t="n">
-        <v>10.99616666666666</v>
+        <v>10.99316666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7053,8 +7723,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7064,22 +7740,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>11.16</v>
+        <v>11.07</v>
       </c>
       <c r="C191" t="n">
-        <v>11.16</v>
+        <v>11.07</v>
       </c>
       <c r="D191" t="n">
-        <v>11.16</v>
+        <v>11.07</v>
       </c>
       <c r="E191" t="n">
-        <v>11.16</v>
+        <v>11.07</v>
       </c>
       <c r="F191" t="n">
-        <v>243.6766</v>
+        <v>50</v>
       </c>
       <c r="G191" t="n">
-        <v>11.00033333333333</v>
+        <v>10.99616666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7088,8 +7764,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7111,10 +7793,10 @@
         <v>11.16</v>
       </c>
       <c r="F192" t="n">
-        <v>29278.0404</v>
+        <v>243.6766</v>
       </c>
       <c r="G192" t="n">
-        <v>11.00583333333333</v>
+        <v>11.00033333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7123,8 +7805,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7146,10 +7834,10 @@
         <v>11.16</v>
       </c>
       <c r="F193" t="n">
-        <v>7810.1576</v>
+        <v>29278.0404</v>
       </c>
       <c r="G193" t="n">
-        <v>11.01133333333333</v>
+        <v>11.00583333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7158,8 +7846,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7181,10 +7875,10 @@
         <v>11.16</v>
       </c>
       <c r="F194" t="n">
-        <v>7817.7432</v>
+        <v>7810.1576</v>
       </c>
       <c r="G194" t="n">
-        <v>11.01683333333333</v>
+        <v>11.01133333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7193,8 +7887,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7204,22 +7904,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="C195" t="n">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="D195" t="n">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="E195" t="n">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="F195" t="n">
-        <v>50</v>
+        <v>7817.7432</v>
       </c>
       <c r="G195" t="n">
-        <v>11.02366666666666</v>
+        <v>11.01683333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7228,8 +7928,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7251,10 +7957,10 @@
         <v>11.17</v>
       </c>
       <c r="F196" t="n">
-        <v>31261.2667</v>
+        <v>50</v>
       </c>
       <c r="G196" t="n">
-        <v>11.03016666666666</v>
+        <v>11.02366666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7263,8 +7969,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7286,10 +7998,10 @@
         <v>11.17</v>
       </c>
       <c r="F197" t="n">
-        <v>18232.3606</v>
+        <v>31261.2667</v>
       </c>
       <c r="G197" t="n">
-        <v>11.03583333333332</v>
+        <v>11.03016666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7298,8 +8010,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7312,19 +8030,19 @@
         <v>11.17</v>
       </c>
       <c r="C198" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="D198" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="E198" t="n">
         <v>11.17</v>
       </c>
       <c r="F198" t="n">
-        <v>3082.8286</v>
+        <v>18232.3606</v>
       </c>
       <c r="G198" t="n">
-        <v>11.04199999999999</v>
+        <v>11.03583333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7333,8 +8051,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7344,7 +8068,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="C199" t="n">
         <v>11.2</v>
@@ -7353,13 +8077,13 @@
         <v>11.2</v>
       </c>
       <c r="E199" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="F199" t="n">
-        <v>1787.2843</v>
+        <v>3082.8286</v>
       </c>
       <c r="G199" t="n">
-        <v>11.04816666666666</v>
+        <v>11.04199999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7368,8 +8092,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7391,10 +8121,10 @@
         <v>11.2</v>
       </c>
       <c r="F200" t="n">
-        <v>1492.4301</v>
+        <v>1787.2843</v>
       </c>
       <c r="G200" t="n">
-        <v>11.05433333333332</v>
+        <v>11.04816666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7403,8 +8133,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7414,22 +8150,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>11.03</v>
+        <v>11.2</v>
       </c>
       <c r="C201" t="n">
-        <v>11.03</v>
+        <v>11.2</v>
       </c>
       <c r="D201" t="n">
-        <v>11.03</v>
+        <v>11.2</v>
       </c>
       <c r="E201" t="n">
-        <v>11.03</v>
+        <v>11.2</v>
       </c>
       <c r="F201" t="n">
-        <v>4963.56</v>
+        <v>1492.4301</v>
       </c>
       <c r="G201" t="n">
-        <v>11.05766666666666</v>
+        <v>11.05433333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7438,8 +8174,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7449,22 +8191,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>11.19</v>
+        <v>11.03</v>
       </c>
       <c r="C202" t="n">
-        <v>11.1</v>
+        <v>11.03</v>
       </c>
       <c r="D202" t="n">
-        <v>11.19</v>
+        <v>11.03</v>
       </c>
       <c r="E202" t="n">
-        <v>10.98</v>
+        <v>11.03</v>
       </c>
       <c r="F202" t="n">
-        <v>58564.7523</v>
+        <v>4963.56</v>
       </c>
       <c r="G202" t="n">
-        <v>11.05983333333332</v>
+        <v>11.05766666666666</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7473,8 +8215,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7487,19 +8235,19 @@
         <v>11.19</v>
       </c>
       <c r="C203" t="n">
-        <v>11.18</v>
+        <v>11.1</v>
       </c>
       <c r="D203" t="n">
         <v>11.19</v>
       </c>
       <c r="E203" t="n">
-        <v>11.1</v>
+        <v>10.98</v>
       </c>
       <c r="F203" t="n">
-        <v>9213.442999999999</v>
+        <v>58564.7523</v>
       </c>
       <c r="G203" t="n">
-        <v>11.06649999999999</v>
+        <v>11.05983333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7508,8 +8256,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7522,19 +8276,19 @@
         <v>11.19</v>
       </c>
       <c r="C204" t="n">
-        <v>11.19</v>
+        <v>11.18</v>
       </c>
       <c r="D204" t="n">
         <v>11.19</v>
       </c>
       <c r="E204" t="n">
-        <v>11.19</v>
+        <v>11.1</v>
       </c>
       <c r="F204" t="n">
-        <v>355.136</v>
+        <v>9213.442999999999</v>
       </c>
       <c r="G204" t="n">
-        <v>11.07333333333332</v>
+        <v>11.06649999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7543,8 +8297,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7566,10 +8326,10 @@
         <v>11.19</v>
       </c>
       <c r="F205" t="n">
-        <v>3521.1684</v>
+        <v>355.136</v>
       </c>
       <c r="G205" t="n">
-        <v>11.07716666666666</v>
+        <v>11.07333333333332</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7578,8 +8338,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7589,22 +8355,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="C206" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="E206" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="F206" t="n">
-        <v>2040.87</v>
+        <v>3521.1684</v>
       </c>
       <c r="G206" t="n">
-        <v>11.07783333333332</v>
+        <v>11.07716666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7613,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7624,22 +8396,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="C207" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="E207" t="n">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="F207" t="n">
-        <v>50</v>
+        <v>2040.87</v>
       </c>
       <c r="G207" t="n">
-        <v>11.07883333333332</v>
+        <v>11.07783333333332</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7648,8 +8420,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7659,22 +8437,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>11.19</v>
+        <v>11.02</v>
       </c>
       <c r="C208" t="n">
-        <v>11.19</v>
+        <v>11.02</v>
       </c>
       <c r="D208" t="n">
-        <v>11.19</v>
+        <v>11.02</v>
       </c>
       <c r="E208" t="n">
-        <v>11.19</v>
+        <v>11.02</v>
       </c>
       <c r="F208" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G208" t="n">
-        <v>11.08299999999999</v>
+        <v>11.07883333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7683,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7694,22 +8478,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="C209" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="D209" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="E209" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="F209" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G209" t="n">
-        <v>11.08699999999999</v>
+        <v>11.08299999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7718,8 +8502,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7729,22 +8519,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>11.19</v>
+        <v>11.18</v>
       </c>
       <c r="C210" t="n">
-        <v>11.19</v>
+        <v>11.18</v>
       </c>
       <c r="D210" t="n">
-        <v>11.19</v>
+        <v>11.18</v>
       </c>
       <c r="E210" t="n">
-        <v>11.19</v>
+        <v>11.18</v>
       </c>
       <c r="F210" t="n">
-        <v>2448.91</v>
+        <v>50</v>
       </c>
       <c r="G210" t="n">
-        <v>11.09116666666665</v>
+        <v>11.08699999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7753,8 +8543,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7764,22 +8560,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="C211" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="D211" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="E211" t="n">
-        <v>11.18</v>
+        <v>11.19</v>
       </c>
       <c r="F211" t="n">
-        <v>7.9508</v>
+        <v>2448.91</v>
       </c>
       <c r="G211" t="n">
-        <v>11.09483333333332</v>
+        <v>11.09116666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7788,8 +8584,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7799,22 +8601,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
       <c r="C212" t="n">
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
       <c r="D212" t="n">
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
       <c r="E212" t="n">
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
       <c r="F212" t="n">
-        <v>19370</v>
+        <v>7.9508</v>
       </c>
       <c r="G212" t="n">
-        <v>11.09666666666665</v>
+        <v>11.09483333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7823,8 +8625,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7834,22 +8642,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>11.13</v>
+        <v>11.07</v>
       </c>
       <c r="C213" t="n">
-        <v>11.13</v>
+        <v>11.07</v>
       </c>
       <c r="D213" t="n">
-        <v>11.13</v>
+        <v>11.07</v>
       </c>
       <c r="E213" t="n">
-        <v>11.13</v>
+        <v>11.07</v>
       </c>
       <c r="F213" t="n">
-        <v>1790.5103</v>
+        <v>19370</v>
       </c>
       <c r="G213" t="n">
-        <v>11.09949999999998</v>
+        <v>11.09666666666665</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7858,8 +8666,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7872,19 +8686,19 @@
         <v>11.13</v>
       </c>
       <c r="C214" t="n">
-        <v>11.17</v>
+        <v>11.13</v>
       </c>
       <c r="D214" t="n">
-        <v>11.17</v>
+        <v>11.13</v>
       </c>
       <c r="E214" t="n">
         <v>11.13</v>
       </c>
       <c r="F214" t="n">
-        <v>1886.4708</v>
+        <v>1790.5103</v>
       </c>
       <c r="G214" t="n">
-        <v>11.10299999999998</v>
+        <v>11.09949999999998</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7893,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7904,22 +8724,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>11.07</v>
+        <v>11.13</v>
       </c>
       <c r="C215" t="n">
-        <v>11.07</v>
+        <v>11.17</v>
       </c>
       <c r="D215" t="n">
-        <v>11.07</v>
+        <v>11.17</v>
       </c>
       <c r="E215" t="n">
-        <v>11.07</v>
+        <v>11.13</v>
       </c>
       <c r="F215" t="n">
-        <v>12810.0272</v>
+        <v>1886.4708</v>
       </c>
       <c r="G215" t="n">
-        <v>11.10483333333332</v>
+        <v>11.10299999999998</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7928,8 +8748,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7939,22 +8765,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>11.02</v>
+        <v>11.07</v>
       </c>
       <c r="C216" t="n">
-        <v>10.98</v>
+        <v>11.07</v>
       </c>
       <c r="D216" t="n">
-        <v>11.02</v>
+        <v>11.07</v>
       </c>
       <c r="E216" t="n">
-        <v>10.98</v>
+        <v>11.07</v>
       </c>
       <c r="F216" t="n">
-        <v>113055.027</v>
+        <v>12810.0272</v>
       </c>
       <c r="G216" t="n">
-        <v>11.10749999999998</v>
+        <v>11.10483333333332</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7963,8 +8789,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7974,22 +8806,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>10.99</v>
+        <v>11.02</v>
       </c>
       <c r="C217" t="n">
         <v>10.98</v>
       </c>
       <c r="D217" t="n">
-        <v>10.99</v>
+        <v>11.02</v>
       </c>
       <c r="E217" t="n">
         <v>10.98</v>
       </c>
       <c r="F217" t="n">
-        <v>19007.9877</v>
+        <v>113055.027</v>
       </c>
       <c r="G217" t="n">
-        <v>11.10799999999998</v>
+        <v>11.10749999999998</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7998,8 +8830,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8009,22 +8847,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>11.09</v>
+        <v>10.99</v>
       </c>
       <c r="C218" t="n">
-        <v>11.09</v>
+        <v>10.98</v>
       </c>
       <c r="D218" t="n">
-        <v>11.09</v>
+        <v>10.99</v>
       </c>
       <c r="E218" t="n">
-        <v>11.09</v>
+        <v>10.98</v>
       </c>
       <c r="F218" t="n">
-        <v>45.0857</v>
+        <v>19007.9877</v>
       </c>
       <c r="G218" t="n">
-        <v>11.10899999999998</v>
+        <v>11.10799999999998</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8033,8 +8871,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8056,10 +8900,10 @@
         <v>11.09</v>
       </c>
       <c r="F219" t="n">
-        <v>310.6606</v>
+        <v>45.0857</v>
       </c>
       <c r="G219" t="n">
-        <v>11.10983333333332</v>
+        <v>11.10899999999998</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8068,8 +8912,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8079,22 +8929,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>10.98</v>
+        <v>11.09</v>
       </c>
       <c r="C220" t="n">
-        <v>10.98</v>
+        <v>11.09</v>
       </c>
       <c r="D220" t="n">
-        <v>10.98</v>
+        <v>11.09</v>
       </c>
       <c r="E220" t="n">
-        <v>10.98</v>
+        <v>11.09</v>
       </c>
       <c r="F220" t="n">
-        <v>394.1322</v>
+        <v>310.6606</v>
       </c>
       <c r="G220" t="n">
-        <v>11.10866666666665</v>
+        <v>11.10983333333332</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8103,8 +8953,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8114,22 +8970,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="C221" t="n">
-        <v>10.95</v>
+        <v>10.98</v>
       </c>
       <c r="D221" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="E221" t="n">
-        <v>10.95</v>
+        <v>10.98</v>
       </c>
       <c r="F221" t="n">
-        <v>182834.84</v>
+        <v>394.1322</v>
       </c>
       <c r="G221" t="n">
-        <v>11.10699999999999</v>
+        <v>11.10866666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8138,8 +8994,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8149,22 +9011,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="C222" t="n">
-        <v>10.98</v>
+        <v>10.95</v>
       </c>
       <c r="D222" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="E222" t="n">
-        <v>10.98</v>
+        <v>10.95</v>
       </c>
       <c r="F222" t="n">
-        <v>6233.9086</v>
+        <v>182834.84</v>
       </c>
       <c r="G222" t="n">
-        <v>11.10549999999999</v>
+        <v>11.10699999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8173,8 +9035,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8187,19 +9055,19 @@
         <v>10.98</v>
       </c>
       <c r="C223" t="n">
-        <v>11.08</v>
+        <v>10.98</v>
       </c>
       <c r="D223" t="n">
-        <v>11.08</v>
+        <v>10.98</v>
       </c>
       <c r="E223" t="n">
         <v>10.98</v>
       </c>
       <c r="F223" t="n">
-        <v>19701.0914</v>
+        <v>6233.9086</v>
       </c>
       <c r="G223" t="n">
-        <v>11.10599999999999</v>
+        <v>11.10549999999999</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8208,8 +9076,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8219,22 +9093,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>10.96</v>
+        <v>10.98</v>
       </c>
       <c r="C224" t="n">
-        <v>10.96</v>
+        <v>11.08</v>
       </c>
       <c r="D224" t="n">
-        <v>10.96</v>
+        <v>11.08</v>
       </c>
       <c r="E224" t="n">
-        <v>10.96</v>
+        <v>10.98</v>
       </c>
       <c r="F224" t="n">
-        <v>4320</v>
+        <v>19701.0914</v>
       </c>
       <c r="G224" t="n">
-        <v>11.10449999999999</v>
+        <v>11.10599999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8243,8 +9117,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8254,22 +9134,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>11.06</v>
+        <v>10.96</v>
       </c>
       <c r="C225" t="n">
-        <v>11.06</v>
+        <v>10.96</v>
       </c>
       <c r="D225" t="n">
-        <v>11.06</v>
+        <v>10.96</v>
       </c>
       <c r="E225" t="n">
-        <v>11.06</v>
+        <v>10.96</v>
       </c>
       <c r="F225" t="n">
-        <v>1546.47</v>
+        <v>4320</v>
       </c>
       <c r="G225" t="n">
-        <v>11.10433333333332</v>
+        <v>11.10449999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8278,8 +9158,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8301,10 +9187,10 @@
         <v>11.06</v>
       </c>
       <c r="F226" t="n">
-        <v>16315.117</v>
+        <v>1546.47</v>
       </c>
       <c r="G226" t="n">
-        <v>11.10399999999999</v>
+        <v>11.10433333333332</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8313,8 +9199,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8324,22 +9216,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="C227" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="D227" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="E227" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="F227" t="n">
-        <v>230.8228</v>
+        <v>16315.117</v>
       </c>
       <c r="G227" t="n">
-        <v>11.10383333333332</v>
+        <v>11.10399999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8348,8 +9240,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8371,10 +9269,10 @@
         <v>11.07</v>
       </c>
       <c r="F228" t="n">
-        <v>12114.3635</v>
+        <v>230.8228</v>
       </c>
       <c r="G228" t="n">
-        <v>11.10266666666666</v>
+        <v>11.10383333333332</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8383,8 +9281,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8397,19 +9301,19 @@
         <v>11.07</v>
       </c>
       <c r="C229" t="n">
-        <v>11.09</v>
+        <v>11.07</v>
       </c>
       <c r="D229" t="n">
-        <v>11.09</v>
+        <v>11.07</v>
       </c>
       <c r="E229" t="n">
         <v>11.07</v>
       </c>
       <c r="F229" t="n">
-        <v>12029.2535</v>
+        <v>12114.3635</v>
       </c>
       <c r="G229" t="n">
-        <v>11.10183333333332</v>
+        <v>11.10266666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8418,8 +9322,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8429,22 +9339,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="C230" t="n">
-        <v>11.14</v>
+        <v>11.09</v>
       </c>
       <c r="D230" t="n">
-        <v>11.14</v>
+        <v>11.09</v>
       </c>
       <c r="E230" t="n">
-        <v>11.14</v>
+        <v>11.07</v>
       </c>
       <c r="F230" t="n">
-        <v>667.8246</v>
+        <v>12029.2535</v>
       </c>
       <c r="G230" t="n">
-        <v>11.10166666666666</v>
+        <v>11.10183333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8453,8 +9363,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8464,22 +9380,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>11.13</v>
+        <v>11.14</v>
       </c>
       <c r="C231" t="n">
-        <v>11.13</v>
+        <v>11.14</v>
       </c>
       <c r="D231" t="n">
-        <v>11.13</v>
+        <v>11.14</v>
       </c>
       <c r="E231" t="n">
-        <v>11.13</v>
+        <v>11.14</v>
       </c>
       <c r="F231" t="n">
-        <v>29641.4166</v>
+        <v>667.8246</v>
       </c>
       <c r="G231" t="n">
-        <v>11.10149999999999</v>
+        <v>11.10166666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8488,8 +9404,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8511,10 +9433,10 @@
         <v>11.13</v>
       </c>
       <c r="F232" t="n">
-        <v>14820.7083</v>
+        <v>29641.4166</v>
       </c>
       <c r="G232" t="n">
-        <v>11.10083333333332</v>
+        <v>11.10149999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8523,8 +9445,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8546,10 +9474,10 @@
         <v>11.13</v>
       </c>
       <c r="F233" t="n">
-        <v>18073.6747</v>
+        <v>14820.7083</v>
       </c>
       <c r="G233" t="n">
-        <v>11.10016666666666</v>
+        <v>11.10083333333332</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8558,8 +9486,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8572,19 +9506,19 @@
         <v>11.13</v>
       </c>
       <c r="C234" t="n">
-        <v>11.1</v>
+        <v>11.13</v>
       </c>
       <c r="D234" t="n">
         <v>11.13</v>
       </c>
       <c r="E234" t="n">
-        <v>11.1</v>
+        <v>11.13</v>
       </c>
       <c r="F234" t="n">
-        <v>91949.37940000001</v>
+        <v>18073.6747</v>
       </c>
       <c r="G234" t="n">
-        <v>11.09899999999999</v>
+        <v>11.10016666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8593,8 +9527,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8604,22 +9544,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>11.2</v>
+        <v>11.13</v>
       </c>
       <c r="C235" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D235" t="n">
-        <v>11.2</v>
+        <v>11.13</v>
       </c>
       <c r="E235" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F235" t="n">
-        <v>45</v>
+        <v>91949.37940000001</v>
       </c>
       <c r="G235" t="n">
-        <v>11.10166666666666</v>
+        <v>11.09899999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8628,8 +9568,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8639,22 +9585,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>11.24</v>
+        <v>11.2</v>
       </c>
       <c r="C236" t="n">
-        <v>11.24</v>
+        <v>11.2</v>
       </c>
       <c r="D236" t="n">
-        <v>11.24</v>
+        <v>11.2</v>
       </c>
       <c r="E236" t="n">
-        <v>11.24</v>
+        <v>11.2</v>
       </c>
       <c r="F236" t="n">
-        <v>48.4545</v>
+        <v>45</v>
       </c>
       <c r="G236" t="n">
-        <v>11.10333333333333</v>
+        <v>11.10166666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8663,8 +9609,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8686,10 +9638,10 @@
         <v>11.24</v>
       </c>
       <c r="F237" t="n">
-        <v>46467.226</v>
+        <v>48.4545</v>
       </c>
       <c r="G237" t="n">
-        <v>11.10499999999999</v>
+        <v>11.10333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8698,8 +9650,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8709,33 +9667,80 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="C238" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D238" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E238" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="F238" t="n">
+        <v>46467.226</v>
+      </c>
+      <c r="G238" t="n">
+        <v>11.10499999999999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
         <v>11.21</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C239" t="n">
         <v>11.21</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D239" t="n">
         <v>11.26</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E239" t="n">
         <v>11.21</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F239" t="n">
         <v>31930.8002</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G239" t="n">
         <v>11.10616666666666</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest RNT.xlsx
+++ b/BackTest/2020-01-12 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N307"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>310644.2227227619</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>338579.0356358311</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>318767.6261358311</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>335826.738335831</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>314149.391535831</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>314149.391535831</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>284399.1714358311</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>8383.353735831246</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>8471.353735831246</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>34150.12153583125</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>33620.95113583124</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>33558.95113583124</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>31484.43483583125</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>46670.70493583124</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>-58316.63976416874</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>-20039.20346416874</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-20039.20346416874</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>-159429.4282641687</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5005,15 @@
         <v>-158729.4282641687</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5038,15 @@
         <v>-159269.1491641687</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>-398894.5465641687</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-397594.5465641687</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5137,15 @@
         <v>-1016961.410864169</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7368,18 +6787,19 @@
         <v>-2105042.988672334</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="J194" t="n">
+        <v>10.83</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,18 +6824,23 @@
         <v>-2103393.690172334</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>10.76</v>
+      </c>
+      <c r="J195" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6867,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,18 +6904,23 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="J197" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +6945,23 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="J198" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,18 +6986,23 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="J199" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7584,18 +7027,23 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="J200" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7620,18 +7068,23 @@
         <v>-2005559.384072334</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="J201" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7111,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7692,22 +7148,21 @@
         <v>-2158558.851072334</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="K203" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7732,24 +7187,23 @@
         <v>-2158510.406672334</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
         <v>10.78</v>
       </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7776,22 +7230,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7818,16 +7269,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7852,18 +7306,23 @@
         <v>-2186366.053672334</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>10.96</v>
+      </c>
+      <c r="J207" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7890,16 +7349,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7926,16 +7388,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7962,16 +7427,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7996,18 +7464,23 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>10.96</v>
+      </c>
+      <c r="J211" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8032,18 +7505,23 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>10.96</v>
+      </c>
+      <c r="J212" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8068,18 +7546,23 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>10.96</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8104,18 +7587,23 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>10.96</v>
+      </c>
+      <c r="J214" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8140,18 +7628,23 @@
         <v>-2176896.717072334</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>10.96</v>
+      </c>
+      <c r="J215" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8176,24 +7669,23 @@
         <v>-2175419.167172334</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>10.82</v>
       </c>
       <c r="J216" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>10.83</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8218,24 +7710,23 @@
         <v>-2174023.229472334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="J217" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8260,22 +7751,23 @@
         <v>-2173973.229472334</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+        <v>11.03</v>
+      </c>
+      <c r="J218" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8300,22 +7792,23 @@
         <v>-2149931.245777311</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+        <v>11.04</v>
+      </c>
+      <c r="J219" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8340,22 +7833,23 @@
         <v>-2149931.245777311</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+        <v>11.05</v>
+      </c>
+      <c r="J220" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8380,22 +7874,23 @@
         <v>-2144419.238872334</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+        <v>11.05</v>
+      </c>
+      <c r="J221" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8420,22 +7915,23 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+        <v>11.07</v>
+      </c>
+      <c r="J222" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8460,22 +7956,23 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+        <v>11.05</v>
+      </c>
+      <c r="J223" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8500,22 +7997,23 @@
         <v>-2157485.060767356</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+        <v>11.05</v>
+      </c>
+      <c r="J224" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8540,22 +8038,23 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+        <v>11.07</v>
+      </c>
+      <c r="J225" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8580,24 +8079,23 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="J226" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8622,22 +8120,23 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+        <v>11.08</v>
+      </c>
+      <c r="J227" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8662,22 +8161,23 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+        <v>11.14</v>
+      </c>
+      <c r="J228" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8702,22 +8202,23 @@
         <v>-2154240.096767356</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+        <v>11.14</v>
+      </c>
+      <c r="J229" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8742,22 +8243,23 @@
         <v>-2173240.096767356</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+        <v>11.15</v>
+      </c>
+      <c r="J230" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8782,22 +8284,23 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+        <v>11.14</v>
+      </c>
+      <c r="J231" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8822,22 +8325,23 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+        <v>11.17</v>
+      </c>
+      <c r="J232" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8862,22 +8366,23 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+        <v>11.17</v>
+      </c>
+      <c r="J233" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8902,24 +8407,23 @@
         <v>-2180305.885367356</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>11.17</v>
       </c>
       <c r="J234" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8944,24 +8448,23 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="J235" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8986,24 +8489,23 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="J236" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9028,24 +8530,23 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="J237" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9070,24 +8571,23 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="J238" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9112,24 +8612,23 @@
         <v>-2168617.155367356</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="J239" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9154,24 +8653,23 @@
         <v>-2168058.249667356</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="J240" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9196,24 +8694,23 @@
         <v>-2173070.109667356</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="J241" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9238,24 +8735,23 @@
         <v>-2187816.681067356</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>11.03</v>
       </c>
       <c r="J242" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9280,24 +8776,23 @@
         <v>-2187766.681067356</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J243" t="n">
-        <v>11</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9322,24 +8817,23 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="J244" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9364,24 +8858,23 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="J245" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9406,24 +8899,23 @@
         <v>-2189621.998567356</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="J246" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9448,24 +8940,23 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="J247" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9490,24 +8981,23 @@
         <v>-2211814.991567356</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>10.99</v>
       </c>
       <c r="J248" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9532,24 +9022,23 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="J249" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9574,24 +9063,23 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="J250" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9616,24 +9104,23 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="J251" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9658,24 +9145,23 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="J252" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9700,24 +9186,23 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="J253" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9742,24 +9227,23 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="J254" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9784,24 +9268,23 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>11.17</v>
       </c>
       <c r="J255" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9826,24 +9309,23 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>11.17</v>
       </c>
       <c r="J256" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9868,24 +9350,23 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>11.17</v>
       </c>
       <c r="J257" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9910,24 +9391,23 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J258" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9952,24 +9432,23 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J259" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9994,24 +9473,23 @@
         <v>-2213452.046367356</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J260" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10036,24 +9514,23 @@
         <v>-2154887.294067356</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>11.03</v>
       </c>
       <c r="J261" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10078,24 +9555,23 @@
         <v>-2145673.851067356</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="J262" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10120,24 +9596,23 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="J263" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10162,24 +9637,21 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10204,24 +9676,23 @@
         <v>-2147359.585067356</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="J265" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10246,24 +9717,23 @@
         <v>-2147309.585067356</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J266" t="n">
-        <v>11</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10288,24 +9758,23 @@
         <v>-2147264.585067356</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="J267" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10330,24 +9799,23 @@
         <v>-2147314.585067356</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="J268" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10372,24 +9840,21 @@
         <v>-2144865.675067356</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10414,24 +9879,21 @@
         <v>-2144873.625867356</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10456,24 +9918,21 @@
         <v>-2164243.625867356</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10498,24 +9957,21 @@
         <v>-2162453.115567356</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10540,24 +9996,21 @@
         <v>-2160566.644767356</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10582,24 +10035,21 @@
         <v>-2173376.671967356</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10624,24 +10074,21 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10666,24 +10113,21 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10708,24 +10152,21 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10750,24 +10191,21 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10792,24 +10230,21 @@
         <v>-2286780.745467356</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10834,24 +10269,21 @@
         <v>-2469615.585467356</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10876,24 +10308,21 @@
         <v>-2463381.676867356</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10918,24 +10347,21 @@
         <v>-2443680.585467356</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10960,24 +10386,21 @@
         <v>-2448000.585467356</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11002,24 +10425,21 @@
         <v>-2446454.115467356</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11044,24 +10464,21 @@
         <v>-2446454.115467356</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11086,24 +10503,21 @@
         <v>-2446223.292667355</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11128,24 +10542,21 @@
         <v>-2446223.292667355</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11170,24 +10581,21 @@
         <v>-2434194.039167355</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11212,24 +10620,21 @@
         <v>-2433526.214567355</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11254,24 +10659,21 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11296,24 +10698,21 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11338,24 +10737,21 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11380,24 +10776,21 @@
         <v>-2555117.010567355</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11422,24 +10815,21 @@
         <v>-2555072.010567355</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11464,24 +10854,21 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11506,24 +10893,21 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11548,24 +10932,21 @@
         <v>-2586954.356267355</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11590,24 +10971,21 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11632,24 +11010,21 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11674,24 +11049,21 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11716,24 +11088,21 @@
         <v>-2582763.682667356</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11758,24 +11127,21 @@
         <v>-2772000.595767356</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11800,24 +11166,21 @@
         <v>-2795750.297867355</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11842,24 +11205,21 @@
         <v>-2795046.010267355</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11884,24 +11244,21 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11926,24 +11283,21 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11968,26 +11322,23 @@
         <v>-2855666.101367355</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest RNT.xlsx
+++ b/BackTest/2020-01-12 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>310644.2227227619</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>338579.0356358311</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>318767.6261358311</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>335826.738335831</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>284399.1714358311</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>286560.6078358311</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>264040.549935831</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>241918.504235831</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>231378.676435831</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>267398.676435831</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>244077.356235831</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>269843.356235831</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>270455.4473358311</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>244535.4473358311</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>124679.8346358311</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>167993.6382358311</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>178975.6382358311</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>28695.28653583105</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>60492.06523583105</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>36147.07303583105</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1527.011664168953</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-198909.8261641689</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-198909.8261641689</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-192954.492364169</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-190839.6894641689</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>8383.353735831246</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>8471.353735831246</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>34150.12153583125</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>33620.95113583124</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>33558.95113583124</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>31484.43483583125</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>46670.70493583124</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>43324.86903583125</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-70595.62726416875</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-164913.8783641687</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-159891.0755641687</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58316.63976416874</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-20039.20346416874</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-20039.20346416874</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-19991.20346416874</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-50870.37496416873</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-50870.37496416873</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-50870.37496416873</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-56593.93786416873</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-56593.93786416873</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-159429.4282641687</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-158729.4282641687</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-159269.1491641687</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-398894.5465641687</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-397594.5465641687</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1016961.410864169</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1097354.547564169</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1273292.421064169</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1271642.421064169</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1271642.421064169</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1271642.421064169</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1421886.280064169</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1360661.662864169</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1360661.662864169</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1360291.662864169</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1361291.662864169</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1361291.662864169</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1361291.662864169</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1522221.453664169</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6787,14 +6787,10 @@
         <v>-2105042.988672334</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J194" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -6824,19 +6820,11 @@
         <v>-2103393.690172334</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="J195" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6868,820 +6856,674 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="C197" t="n">
         <v>10.83</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="D197" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="E197" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F197" t="n">
+        <v>71944.7981</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-2045387.568472334</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="C198" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D198" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18271.0269</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-2045387.568472334</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="C199" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D199" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="E199" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2111.1838</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2045387.568472334</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="C200" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D200" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="E200" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F200" t="n">
+        <v>57258.6562</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2045387.568472334</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="D201" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E201" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>39828.1844</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-2005559.384072334</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="C202" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D202" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="E202" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="F202" t="n">
+        <v>152999.467</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2158558.851072334</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="C203" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D203" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E203" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="F203" t="n">
+        <v>700</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2158558.851072334</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F204" t="n">
+        <v>48.4444</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2158510.406672334</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F205" t="n">
+        <v>851.4019</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-2158510.406672334</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C206" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D206" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E206" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1809.6086</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2158510.406672334</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="C207" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D207" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E207" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="F207" t="n">
+        <v>27855.647</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-2186366.053672334</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="C208" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D208" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E208" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="F208" t="n">
+        <v>82129.1332</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2186366.053672334</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="C209" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E209" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12400.9829</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-2186366.053672334</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="C210" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D210" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E210" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="F210" t="n">
+        <v>9652.706</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-2176713.347672334</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C211" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D211" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F211" t="n">
+        <v>45.6205</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-2176713.347672334</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C212" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D212" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F212" t="n">
+        <v>136.8614</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-2176713.347672334</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C213" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D213" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E213" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F213" t="n">
+        <v>91</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-2176713.347672334</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C214" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D214" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E214" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F214" t="n">
+        <v>546</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-2176713.347672334</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="C215" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D215" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="E215" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F215" t="n">
+        <v>183.3694</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-2176896.717072334</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="C216" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="D216" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E216" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1477.5499</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-2175419.167172334</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="C197" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="D197" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="E197" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F197" t="n">
-        <v>71944.7981</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2045387.568472334</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J197" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="C198" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="D198" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="E198" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F198" t="n">
-        <v>18271.0269</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2045387.568472334</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J198" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="C199" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="D199" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="E199" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2111.1838</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2045387.568472334</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J199" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="C200" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="D200" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="E200" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F200" t="n">
-        <v>57258.6562</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2045387.568472334</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J200" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="C201" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="D201" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="E201" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>39828.1844</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2005559.384072334</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J201" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="C202" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="D202" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="E202" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="F202" t="n">
-        <v>152999.467</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2158558.851072334</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="C203" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="D203" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="E203" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="F203" t="n">
-        <v>700</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2158558.851072334</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C204" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D204" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E204" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F204" t="n">
-        <v>48.4444</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2158510.406672334</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="J204" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C205" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D205" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E205" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F205" t="n">
-        <v>851.4019</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2158510.406672334</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C206" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D206" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E206" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1809.6086</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2158510.406672334</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="C207" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="D207" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="E207" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="F207" t="n">
-        <v>27855.647</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2186366.053672334</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="J207" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="C208" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="D208" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="E208" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="F208" t="n">
-        <v>82129.1332</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2186366.053672334</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="C209" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="D209" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="E209" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="F209" t="n">
-        <v>12400.9829</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-2186366.053672334</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="C210" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D210" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E210" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="F210" t="n">
-        <v>9652.706</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-2176713.347672334</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C211" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D211" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E211" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F211" t="n">
-        <v>45.6205</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-2176713.347672334</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="J211" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C212" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D212" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E212" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F212" t="n">
-        <v>136.8614</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-2176713.347672334</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="J212" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C213" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D213" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E213" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F213" t="n">
-        <v>91</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-2176713.347672334</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="J213" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C214" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D214" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E214" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F214" t="n">
-        <v>546</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-2176713.347672334</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="J214" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="C215" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="D215" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="E215" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="F215" t="n">
-        <v>183.3694</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-2176896.717072334</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="J215" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="C216" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="D216" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="E216" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1477.5499</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-2175419.167172334</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="J216" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7710,14 +7552,12 @@
         <v>-2174023.229472334</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>10.95</v>
       </c>
-      <c r="J217" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,14 +7591,10 @@
         <v>-2173973.229472334</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J218" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7792,14 +7628,10 @@
         <v>-2149931.245777311</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="J219" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,14 +7665,10 @@
         <v>-2149931.245777311</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J220" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7874,14 +7702,10 @@
         <v>-2144419.238872334</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J221" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,14 +7739,10 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="J222" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,14 +7776,10 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J223" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,14 +7813,10 @@
         <v>-2157485.060767356</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J224" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,14 +7850,12 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>11.07</v>
       </c>
-      <c r="J225" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,14 +7889,12 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>11.08</v>
       </c>
-      <c r="J226" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,14 +7928,12 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>11.08</v>
       </c>
-      <c r="J227" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,14 +7967,12 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>11.14</v>
       </c>
-      <c r="J228" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,14 +8006,12 @@
         <v>-2154240.096767356</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>11.14</v>
       </c>
-      <c r="J229" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,14 +8045,12 @@
         <v>-2173240.096767356</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>11.15</v>
       </c>
-      <c r="J230" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,14 +8084,12 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>11.14</v>
       </c>
-      <c r="J231" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8325,14 +8123,12 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>11.17</v>
       </c>
-      <c r="J232" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,14 +8162,12 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>11.17</v>
       </c>
-      <c r="J233" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8407,14 +8201,12 @@
         <v>-2180305.885367356</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>11.17</v>
       </c>
-      <c r="J234" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,14 +8240,12 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>11.04</v>
       </c>
-      <c r="J235" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,14 +8279,12 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>11.14</v>
       </c>
-      <c r="J236" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8530,14 +8318,12 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>11.14</v>
       </c>
-      <c r="J237" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,14 +8357,12 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>11.14</v>
       </c>
-      <c r="J238" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,14 +8396,12 @@
         <v>-2168617.155367356</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>11.14</v>
       </c>
-      <c r="J239" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8653,14 +8435,12 @@
         <v>-2168058.249667356</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>11.04</v>
       </c>
-      <c r="J240" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,14 +8474,12 @@
         <v>-2173070.109667356</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>11.14</v>
       </c>
-      <c r="J241" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,14 +8513,12 @@
         <v>-2187816.681067356</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>11.03</v>
       </c>
-      <c r="J242" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8776,14 +8552,12 @@
         <v>-2187766.681067356</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>11</v>
       </c>
-      <c r="J243" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,14 +8591,12 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>11.14</v>
       </c>
-      <c r="J244" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,14 +8630,12 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>10.98</v>
       </c>
-      <c r="J245" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,14 +8669,12 @@
         <v>-2189621.998567356</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>10.98</v>
       </c>
-      <c r="J246" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,14 +8708,12 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>11.13</v>
       </c>
-      <c r="J247" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,14 +8747,12 @@
         <v>-2211814.991567356</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>10.99</v>
       </c>
-      <c r="J248" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,14 +8786,12 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>11.13</v>
       </c>
-      <c r="J249" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,14 +8825,12 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>11.07</v>
       </c>
-      <c r="J250" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,14 +8864,12 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>11.16</v>
       </c>
-      <c r="J251" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,14 +8903,12 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>11.16</v>
       </c>
-      <c r="J252" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,14 +8942,12 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>11.16</v>
       </c>
-      <c r="J253" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,14 +8981,12 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>11.16</v>
       </c>
-      <c r="J254" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,14 +9020,12 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>11.17</v>
       </c>
-      <c r="J255" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,14 +9059,12 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>11.17</v>
       </c>
-      <c r="J256" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,14 +9098,12 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>11.17</v>
       </c>
-      <c r="J257" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9391,14 +9137,12 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>11.2</v>
       </c>
-      <c r="J258" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9432,14 +9176,12 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>11.2</v>
       </c>
-      <c r="J259" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9473,14 +9215,12 @@
         <v>-2213452.046367356</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>11.2</v>
       </c>
-      <c r="J260" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,14 +9254,12 @@
         <v>-2154887.294067356</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>11.03</v>
       </c>
-      <c r="J261" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9555,14 +9293,12 @@
         <v>-2145673.851067356</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>11.1</v>
       </c>
-      <c r="J262" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9596,14 +9332,12 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>11.18</v>
       </c>
-      <c r="J263" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,12 +9371,12 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9676,14 +9410,12 @@
         <v>-2147359.585067356</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>11.19</v>
       </c>
-      <c r="J265" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9717,14 +9449,12 @@
         <v>-2147309.585067356</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>11</v>
       </c>
-      <c r="J266" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9758,14 +9488,12 @@
         <v>-2147264.585067356</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>11.02</v>
       </c>
-      <c r="J267" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9799,14 +9527,12 @@
         <v>-2147314.585067356</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>11.19</v>
       </c>
-      <c r="J268" t="n">
-        <v>10.83</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9840,12 +9566,12 @@
         <v>-2144865.675067356</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9879,12 +9605,12 @@
         <v>-2144873.625867356</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,12 +9644,12 @@
         <v>-2164243.625867356</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9957,12 +9683,12 @@
         <v>-2162453.115567356</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,12 +9722,12 @@
         <v>-2160566.644767356</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10035,12 +9761,12 @@
         <v>-2173376.671967356</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10074,12 +9800,12 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10113,12 +9839,12 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,12 +9878,12 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10191,12 +9917,12 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10230,12 +9956,12 @@
         <v>-2286780.745467356</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10269,12 +9995,12 @@
         <v>-2469615.585467356</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10308,12 +10034,12 @@
         <v>-2463381.676867356</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10347,12 +10073,12 @@
         <v>-2443680.585467356</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10386,12 +10112,12 @@
         <v>-2448000.585467356</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10425,12 +10151,12 @@
         <v>-2446454.115467356</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10464,12 +10190,12 @@
         <v>-2446454.115467356</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10503,12 +10229,12 @@
         <v>-2446223.292667355</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10542,12 +10268,12 @@
         <v>-2446223.292667355</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,12 +10307,12 @@
         <v>-2434194.039167355</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10620,12 +10346,12 @@
         <v>-2433526.214567355</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10659,12 +10385,12 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,12 +10424,12 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10737,12 +10463,12 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10776,12 +10502,12 @@
         <v>-2555117.010567355</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10815,12 +10541,12 @@
         <v>-2555072.010567355</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10854,12 +10580,12 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10893,12 +10619,12 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,12 +10658,12 @@
         <v>-2586954.356267355</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10971,12 +10697,12 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11010,12 +10736,12 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,12 +10775,12 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11088,12 +10814,12 @@
         <v>-2582763.682667356</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,12 +10853,12 @@
         <v>-2772000.595767356</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11166,12 +10892,12 @@
         <v>-2795750.297867355</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11205,12 +10931,12 @@
         <v>-2795046.010267355</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11244,12 +10970,12 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11283,12 +11009,12 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,12 +11048,12 @@
         <v>-2855666.101367355</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>10.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11339,6 +11065,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest RNT.xlsx
+++ b/BackTest/2020-01-12 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-226207.5503641688</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-235744.2825641688</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-367045.4862641689</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-275167.4439641689</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20529.44326416892</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>237393.8485358311</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>338579.0356358311</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>286560.6078358311</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>264040.549935831</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>275450.549935831</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>244535.4473358311</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>124679.8346358311</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>28695.28653583105</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>60492.06523583105</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1527.011664168953</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-13279.15476416895</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-82790.09236416896</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-198909.8261641689</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-198909.8261641689</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-192954.492364169</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-190839.6894641689</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>8383.353735831246</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>8471.353735831246</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>38423.88663583124</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>33681.95113583124</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>33620.95113583124</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-143316.8377641687</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-159429.4282641687</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-158729.4282641687</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-159269.1491641687</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-398894.5465641687</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1097354.547564169</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1273292.421064169</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1271642.421064169</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1271642.421064169</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1271642.421064169</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1421886.280064169</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1360661.662864169</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1360661.662864169</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1360291.662864169</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1361291.662864169</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1361291.662864169</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1361291.662864169</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1522221.453664169</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7513,17 +7513,11 @@
         <v>-2175419.167172334</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>10.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7552,17 +7546,11 @@
         <v>-2174023.229472334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>10.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7632,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7706,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7743,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7817,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7850,17 +7810,11 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7889,17 +7843,11 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7928,17 +7876,11 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7967,17 +7909,11 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8006,17 +7942,11 @@
         <v>-2154240.096767356</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>11.14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8045,17 +7975,11 @@
         <v>-2173240.096767356</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>11.15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8084,17 +8008,11 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>11.14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8123,17 +8041,11 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>11.17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8162,17 +8074,11 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8201,17 +8107,11 @@
         <v>-2180305.885367356</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>11.17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8240,17 +8140,11 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8279,17 +8173,11 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8318,17 +8206,11 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8357,17 +8239,11 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8396,17 +8272,11 @@
         <v>-2168617.155367356</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8435,17 +8305,11 @@
         <v>-2168058.249667356</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8474,17 +8338,11 @@
         <v>-2173070.109667356</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>11.14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8513,17 +8371,11 @@
         <v>-2187816.681067356</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>11.03</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8552,17 +8404,11 @@
         <v>-2187766.681067356</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8591,17 +8437,11 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8630,17 +8470,11 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>10.98</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8669,17 +8503,11 @@
         <v>-2189621.998567356</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>10.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8708,17 +8536,11 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>11.13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8747,17 +8569,11 @@
         <v>-2211814.991567356</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8786,17 +8602,11 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8825,17 +8635,11 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8864,17 +8668,11 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8903,17 +8701,11 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8942,17 +8734,11 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8981,17 +8767,11 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9020,17 +8800,11 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9059,17 +8833,11 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9098,17 +8866,11 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9137,17 +8899,11 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9176,17 +8932,11 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9215,17 +8965,11 @@
         <v>-2213452.046367356</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9254,17 +8998,11 @@
         <v>-2154887.294067356</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>11.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9293,17 +9031,11 @@
         <v>-2145673.851067356</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9332,17 +9064,11 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9371,17 +9097,11 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9410,17 +9130,11 @@
         <v>-2147359.585067356</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9449,17 +9163,11 @@
         <v>-2147309.585067356</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9488,17 +9196,11 @@
         <v>-2147264.585067356</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9527,17 +9229,11 @@
         <v>-2147314.585067356</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9566,17 +9262,11 @@
         <v>-2144865.675067356</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9605,17 +9295,11 @@
         <v>-2144873.625867356</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9644,17 +9328,11 @@
         <v>-2164243.625867356</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9683,17 +9361,11 @@
         <v>-2162453.115567356</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9722,17 +9394,11 @@
         <v>-2160566.644767356</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>11.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9761,17 +9427,11 @@
         <v>-2173376.671967356</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9800,17 +9460,11 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9847,7 +9501,7 @@
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9917,11 +9571,9 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>11.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -9956,11 +9608,9 @@
         <v>-2286780.745467356</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>11.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10112,11 +9762,9 @@
         <v>-2448000.585467356</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10385,11 +10033,9 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10502,11 +10148,9 @@
         <v>-2555117.010567355</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>11.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10541,11 +10185,9 @@
         <v>-2555072.010567355</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10580,11 +10222,9 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10619,11 +10259,9 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>11.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10658,11 +10296,9 @@
         <v>-2586954.356267355</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>11.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10697,11 +10333,9 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>11.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10736,11 +10370,9 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>11.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10775,11 +10407,9 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>11.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10814,11 +10444,9 @@
         <v>-2582763.682667356</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>11.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10853,11 +10481,9 @@
         <v>-2772000.595767356</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10892,11 +10518,9 @@
         <v>-2795750.297867355</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10931,11 +10555,9 @@
         <v>-2795046.010267355</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10970,11 +10592,9 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11009,11 +10629,9 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>10.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11048,11 +10666,9 @@
         <v>-2855666.101367355</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>10.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11065,6 +10681,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest RNT.xlsx
+++ b/BackTest/2020-01-12 BackTest RNT.xlsx
@@ -451,7 +451,7 @@
         <v>-226207.5503641688</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-235744.2825641688</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-367045.4862641689</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-275167.4439641689</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20529.44326416892</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>237393.8485358311</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>318767.6261358311</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>335826.738335831</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>284399.1714358311</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>286560.6078358311</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>264040.549935831</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>275450.549935831</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>241918.504235831</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>231378.676435831</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>267398.676435831</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>244077.356235831</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>269843.356235831</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>270455.4473358311</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>167993.6382358311</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>178975.6382358311</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>36147.07303583105</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-13279.15476416895</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-82790.09236416896</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>8383.353735831246</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>8471.353735831246</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>38423.88663583124</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>33681.95113583124</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>33620.95113583124</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>46670.70493583124</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>43324.86903583125</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-70595.62726416875</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-164913.8783641687</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-159891.0755641687</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58316.63976416874</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-159429.4282641687</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-158729.4282641687</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-159269.1491641687</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-398894.5465641687</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -7513,11 +7513,17 @@
         <v>-2175419.167172334</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>10.82</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7552,17 @@
         <v>-2174023.229472334</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10.95</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7595,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7632,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7669,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7702,17 @@
         <v>-2144419.238872334</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>11.05</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7745,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7778,17 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>11.05</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7817,17 @@
         <v>-2157485.060767356</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>11.05</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7856,17 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7895,17 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7934,17 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7973,17 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8012,17 @@
         <v>-2154240.096767356</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8051,17 @@
         <v>-2173240.096767356</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>11.15</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8090,17 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8129,17 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8168,17 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8207,17 @@
         <v>-2180305.885367356</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8246,17 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8285,17 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8324,17 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8363,17 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8402,17 @@
         <v>-2168617.155367356</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8441,17 @@
         <v>-2168058.249667356</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8480,17 @@
         <v>-2173070.109667356</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8519,17 @@
         <v>-2187816.681067356</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8558,17 @@
         <v>-2187766.681067356</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>11</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8597,17 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8636,17 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8675,17 @@
         <v>-2189621.998567356</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8714,17 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8753,17 @@
         <v>-2211814.991567356</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8792,17 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8831,17 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8870,17 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8909,17 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8948,17 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8987,17 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9026,17 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9065,17 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9104,17 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9143,17 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9182,17 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9221,17 @@
         <v>-2213452.046367356</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9260,17 @@
         <v>-2154887.294067356</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9299,17 @@
         <v>-2145673.851067356</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>11.1</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9338,17 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9377,17 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9416,17 @@
         <v>-2147359.585067356</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9455,17 @@
         <v>-2147309.585067356</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>11</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9494,17 @@
         <v>-2147264.585067356</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>11.02</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9533,17 @@
         <v>-2147314.585067356</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9572,17 @@
         <v>-2144865.675067356</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9611,17 @@
         <v>-2144873.625867356</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9650,17 @@
         <v>-2164243.625867356</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9689,17 @@
         <v>-2162453.115567356</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9728,17 @@
         <v>-2160566.644767356</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9767,17 @@
         <v>-2173376.671967356</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9806,17 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9501,7 +9853,7 @@
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9571,9 +9923,11 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -9608,9 +9962,11 @@
         <v>-2286780.745467356</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -9762,9 +10118,11 @@
         <v>-2448000.585467356</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10033,9 +10391,11 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10148,9 +10508,11 @@
         <v>-2555117.010567355</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10185,9 +10547,11 @@
         <v>-2555072.010567355</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11.1</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10222,9 +10586,11 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10259,9 +10625,11 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11.24</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10296,9 +10664,11 @@
         <v>-2586954.356267355</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11.24</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10333,9 +10703,11 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>11.21</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10370,9 +10742,11 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11.26</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10407,9 +10781,11 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11.26</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10444,9 +10820,11 @@
         <v>-2582763.682667356</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11.26</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10481,9 +10859,11 @@
         <v>-2772000.595767356</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10518,9 +10898,11 @@
         <v>-2795750.297867355</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10555,9 +10937,11 @@
         <v>-2795046.010267355</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10592,9 +10976,11 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10629,9 +11015,11 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10666,9 +11054,11 @@
         <v>-2855666.101367355</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
